--- a/data/hotels_by_city/Dallas/Dallas_shard_211.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_211.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1044">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Brian P</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Overnight might be okay. Long term, not. I relocated from Austin to this area. Didn't have a house yet. Checked in on a Monday, January 15. Room cleaning weekly only half assed done. Wouldn't even leave any wash cloths. Gabby at front desk, although friendly, spent more time in back room than at front desk. Don't know what she was doing back there except the one time she brought her dog to work and was back there with it. She says she does her job and does it well, really.  I checked in on a Monday and paid for a week. Which is Monday to Monday. After being hear nearly three months they come up as my check out on a Sunday, which should be Monday morning. No help from Gabby at front desk. Called customer service and they say since I started paying on Sunday instead of Monday that they credited me a day making check out on Sunday. If the ignorants would do their job, when I went in on Sunday to pay, there would be no credited day and it would have stayed Monday to Monday. Also my work truck got broke into here and $3000.00 in tools stolen. AVOID.More</t>
   </si>
   <si>
+    <t>William Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r568164194-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Nothing good to say about this property.  Rooms were dirty, the furnishings were worn out, hot water was intermittent when showering, even the parking areas were littered.  I tried to check in on a Saturday with a confirmed reservation for a two bed room.  When I arrived I was told it was not available, would I mind staying in a single for one night?  They would get me in the two bed room early Sunday morning.  Well, it was 3pm Sunday before I moved, I work nights so I only got a 2 hour nap before heading to work.More</t>
   </si>
   <si>
+    <t>Hailey W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r561507605-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Do not stay here. NOT WORTH SAVING $50 ON THIS HOTEL. Spend a little more and stay somewhere nicer and safer. We stayed for ONE night and had an awful experience. The whole property is an absolute mess. The property was littered with trash and cigarette butts. There were bags of trash under all of the stairwells like it hadn’t been taken out for weeks. We checked in around 11:00 pm. We were exhasusted from traveling all day and doing other activities. The over-night lady at the front desk doesn’t know how to do her job. She messed up my reservation and told me not to worry that the staff in the morning would fix it. She took forever to get us checked in, like she didn’t know what she was doing. I started losing patience with her because I was so tired. She isn’t knowledgeable of the property at all. I asked her where the room was and she said all I know is that it’s in the second building. When we saw where our room was, and how dirty the property appeared... we almost didn’t stay. We figured we would only be there for one night, we were so tired, it was late, and we knew it would be a huge hassle to get our money back with the clueless overnight lady at the desk.. so we reluctantly decided to just stay. THIS IS THE MOST DISTURBING OF...Do not stay here. NOT WORTH SAVING $50 ON THIS HOTEL. Spend a little more and stay somewhere nicer and safer. We stayed for ONE night and had an awful experience. The whole property is an absolute mess. The property was littered with trash and cigarette butts. There were bags of trash under all of the stairwells like it hadn’t been taken out for weeks. We checked in around 11:00 pm. We were exhasusted from traveling all day and doing other activities. The over-night lady at the front desk doesn’t know how to do her job. She messed up my reservation and told me not to worry that the staff in the morning would fix it. She took forever to get us checked in, like she didn’t know what she was doing. I started losing patience with her because I was so tired. She isn’t knowledgeable of the property at all. I asked her where the room was and she said all I know is that it’s in the second building. When we saw where our room was, and how dirty the property appeared... we almost didn’t stay. We figured we would only be there for one night, we were so tired, it was late, and we knew it would be a huge hassle to get our money back with the clueless overnight lady at the desk.. so we reluctantly decided to just stay. THIS IS THE MOST DISTURBING OF ALL: We got locked out of our room the next morning, so we went up to the front desk and asked for a key to our room. The man at the desk asked our room number and handed us a key without hesitation. Didn’t even bother to ask a name on the room or see identification! We could’ve gotten a key to anyone’s room. Needless to say, I’m glad we had brought our concealed carry with us. We stopped by the front desk to check out. I walk into the office and wait for a few minutes. Then several other guests walk in behind me to check out as well. After several minutes, no staff member ever appears to check us out. Me, and all of the guests are tired of waiting for someone to do their job behind the desk, so we all dropped our keys on the counter and walked out. This is seriously appalling. I have never stayed at a more crappy hotel in my life and I will never go back, nor will I recommend it to anyone I know. More</t>
   </si>
   <si>
+    <t>113shens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r561397997-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>The surrounding of the hotel was under construction; furthermore, there was no street light.   Arrived late. In the dark, I couldn't find the way to enter the parking lot; called the hotel; the front desk person was nice and helpful.  First room I was given, the phone and the bath tub faucets were dead. I reported to the front desk, and she gave me another room. In the second room, the bath room shower did not work satisfactorily ( I could use it, though). Too tired to change room, again, so I stayed.More</t>
   </si>
   <si>
+    <t>leprimehospitality</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r556706755-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We enjoyed our stay at Extended stay Ameria, Arlington,  but the hotel is bit old, but if you are looking for a spacious hotel, there is no doubt about it, the hotel is the right place to stay, 3 families can stay conveniently. Thank you.More</t>
   </si>
   <si>
+    <t>kimsO4668AM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r554127105-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>From staff, to the room itself, everything was awesome. I would definitely recommend this hotel to friends and family. Will book again in the near future. However, it needs to be apparent from beginning of booking that if you pay via cash , there is a $100 deposit. That would have cut out a lot of time for me during booking.More</t>
   </si>
   <si>
+    <t>Howard N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r550127610-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>I felt safe, secure and a Excellent value for the money and appropriate for my needs.  I few tweaks were needed but not anything to uproot a comfortable temporary stay.  The Price was Good, Availability was Good, Peaceful and Quiet, No alcohol or disturbing music or crowds.  Good conversation just right with interaction on the premises.  Information from me needed to check in was minimal and no Incidentals security deposit was necessary.More</t>
   </si>
   <si>
+    <t>Rayden R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r548900995-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>This was the worst experience I have had at a hotel not only was the front desk rude and unprofessional my room was so dirty no sheets on the bed, urine on the toilet seat, trash left, and food on the blankets at least thats what I'm hoping it was, also rat feces was found under the sink in kitchen. I asked for clean sheet and blankets and was on hold for over thirty mins. More</t>
   </si>
   <si>
+    <t>Tru3lov3r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r528831580-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>First off this place is $130 per night regularly, so one would think it's pretty decent... well,  it's NOT! It's a hot mess! First, when we got here the reception didn't have our reservation and we went through crap and a half proving we had a reservation and for the correct dates. Once we finally get a room, the room is a mess, the bed is messy, there are no pillow covers, no towels, nothing! So we asked to move rooms. We go to the new room and our keys don't work. Go back to the other side of the complex and back to the office to fix it. Go to the new room again and the DAMN KEYS DON'T WORK AGAIN!!! Get to the new room once more, keys work, and it actually has pillow cases, but this place is ghetto. I've stayed in hostels in Europe that are the Hilton compared to this place, just let that sink in. The shower was moldy and unclean, the toilet has weird sediments at the bottom, the hand soap is literally all wax. Please for the love of all that is holy don't stay here. We can't get our money back otherwise we would've left a long time ago, but we're stuck. Ok, we are in the new room relaxing and what happens? A random couple walks in!! They double booked the room. That gets sorted, we leave for the evening,... First off this place is $130 per night regularly, so one would think it's pretty decent... well,  it's NOT! It's a hot mess! First, when we got here the reception didn't have our reservation and we went through crap and a half proving we had a reservation and for the correct dates. Once we finally get a room, the room is a mess, the bed is messy, there are no pillow covers, no towels, nothing! So we asked to move rooms. We go to the new room and our keys don't work. Go back to the other side of the complex and back to the office to fix it. Go to the new room again and the DAMN KEYS DON'T WORK AGAIN!!! Get to the new room once more, keys work, and it actually has pillow cases, but this place is ghetto. I've stayed in hostels in Europe that are the Hilton compared to this place, just let that sink in. The shower was moldy and unclean, the toilet has weird sediments at the bottom, the hand soap is literally all wax. Please for the love of all that is holy don't stay here. We can't get our money back otherwise we would've left a long time ago, but we're stuck. Ok, we are in the new room relaxing and what happens? A random couple walks in!! They double booked the room. That gets sorted, we leave for the evening, come back around midnight only to find that our keys don't work AGAIN!! That's 3 times folks!! Ok,  next morning we go get breakfast, come back, keys are working. We leave a little while later and as we are in the car we see house keeping knocking on our door. I go up to her and let her know we don't need anything and she says that we're set to check out today. Obviously that's news to me! She says we have to talk to the front office, we go and sure enough they say we're supposed to check out. We go through the whole mess again with our damn reservations and leave for the day. Come back late afternoon and what happens again you ask? OUR DAMN KEYS DON'T WORK!! Seriously, I have stayed in sketchy European hostels with 6 strangers in some run down places and I felt cleaner, safer, and happier there than I do here. My suggestion is RUN!More</t>
   </si>
   <si>
+    <t>rjkd17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r524134267-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>I booked my Fiance a night at this place and the next morning she complained to me that one of the beds in her room was filthy,had a cockroach in it,and she also said they ran out of breakfast. I then called this place 3 separate times to try to resolve this situation only to be blown off with excuses that the manager wasn't there,and ND after making promises that the manager would get back in contact with us they never did. I will never recommend this place to another human being on this planet.More</t>
   </si>
   <si>
+    <t>stickbowcoop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r522037568-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>I had 3 weeks reserved but after one night I checked out. The rooms are old which I can deal with. However, they smelled very strong of smoke even though it was supposed to nonsmoking. There was some mysterious white powder in the drawers of my dresser, the outside walkway was noisy and people stand out there and smoke, so it comes right in the windows. The office personal were very helpful and why they are getting 3 stars, I really think I just got a bad room so I am hesitant to even leave them a bad review at all. I wish I remembered the name of the fellow that was working the front desk because he was very nice and understanding and didn't even charge me for the utensil rental since I never got to use any of it. There was also a gunshot outside at around 9pm which sealed the deal for me to check out the next morning (if you research it you will find the news of a shooting a few blocks over from the hotel in 01/2017). A shooting is not the fault of the hotel so I am not holding this against them, but it was not a good experience for me. This Extended Stay America was recommended to me by a coworker and they were very happy with their stay. So I would not judge all Extended Stay America hotels in the...I had 3 weeks reserved but after one night I checked out. The rooms are old which I can deal with. However, they smelled very strong of smoke even though it was supposed to nonsmoking. There was some mysterious white powder in the drawers of my dresser, the outside walkway was noisy and people stand out there and smoke, so it comes right in the windows. The office personal were very helpful and why they are getting 3 stars, I really think I just got a bad room so I am hesitant to even leave them a bad review at all. I wish I remembered the name of the fellow that was working the front desk because he was very nice and understanding and didn't even charge me for the utensil rental since I never got to use any of it. There was also a gunshot outside at around 9pm which sealed the deal for me to check out the next morning (if you research it you will find the news of a shooting a few blocks over from the hotel in 01/2017). A shooting is not the fault of the hotel so I am not holding this against them, but it was not a good experience for me. This Extended Stay America was recommended to me by a coworker and they were very happy with their stay. So I would not judge all Extended Stay America hotels in the DFW area by my experience. I dislike leaving bad reviews but I feel it's best to always share experiences so anybody needing a long term room can hear all opinions. More</t>
   </si>
   <si>
+    <t>Ikenna O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r520977016-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>Five different groups of travelers were told that 1) all of our reservations were not able to be seen by the hotel and 2) that there were no available rooms because current guests "decided they wanted to stay longer."  Needless to say, these explanations did not seem to be honest or legitimate.  This terrible service, plus the terrible reviews, are reasons for everyone never to stay here.  I hope people read this and avoid a nightmare experience.  I would rather sleep outside on a park bench or in my car than go to this place.More</t>
   </si>
   <si>
+    <t>DONDREA S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r512502575-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>The room provided was so unsafe I couldn't stay there. The door stuck...very hard to open and close no matter what side you were on. The worst part was the bed. I barely touched it and it tilted....yes TILTED. My son checked it and it wasn't even on rails like the other bed. I could've really hurt myself if I had plopped down on it. However the young lady at the front desk was very nice. That bad thing was that the roaches/bugs in front of the lobby we're ridiculous.More</t>
   </si>
   <si>
+    <t>shawn757</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r509819240-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>The night staff is extra friendly at this location.  The rooms are clean and I love the full kitchen. They offer all the comforts of home at a very affordable price. Book early because it's a very sought after location literally right off the interstate. The rooms fill up very fast...More</t>
   </si>
   <si>
+    <t>Angela D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r506645839-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>I called several times today and could not reach the front desk. I was calling to let the hotel know that I would be arriving late, driving from Mississippi which is over a six hour drive. See attached photos. I called several times as you can see. The lady at the front desk said that i would have no probem checking in. I arrived after 11pm and it said to pick up the phone to speak with someone after hours.  I called several times atleast 5 times, so I decided to call from my cell phone. I had two reservations for two rooms, paid for in advance and being told that there is only one room available. After waiting for additonal 20 minutes only to find out that they are a single beds. She offered a pillow and a blanket.it took nearly 30 minutes to check in a room. I will ensure i complain on every website available and call corporate office. This will be my last time staying with this chain.More</t>
   </si>
   <si>
+    <t>Matthew L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r502345213-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -576,6 +624,9 @@
     <t>We recently stayed for a business convention.  Things seemed amiss when updates for room availability was very spotty.  No one was available at the desk for quite some time and then unusual requests for drivers licenses and such were part of the check in process.The room was decent, but no hair dryer provided(and apparently the 3rd floor long term residents had them all), no silverware or plates dishes, and cooking gear as noted in the booking was there.  Most towels were absent and day to day cleaning was non-existent.  The shower curtain rod was ready to give and when we tried to call about various issues, the cord had already been ripped from the wall and no replacement phone was given.  The other three business party guests had similar or worse including apparent cheese storage in their a/c unit.  Many, many other things came up and though not a bad room, the everything else that was not the actual room has made itself into legend and will not have our business nor our organizations business next February or July.More</t>
   </si>
   <si>
+    <t>timothyy822</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r501116446-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -600,6 +651,9 @@
     <t>The service was not good.  The queen studio was smaller than an average room.  Very cramped.  Had to ask for kitchen utensils.  Only thing good about hotel was location.  Would not recommend this to anyone.More</t>
   </si>
   <si>
+    <t>William E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r532509534-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>Staff needs replaced rooms were dirty towels very dirty Tv channels need more less news I wont stay here again ever I would sleep in my truck before staying here. First off I drove 8 hours to get there after working an 8 hour shift staff didn't even want to try and check me in early and I told them I would be staying 3 monthsMore</t>
   </si>
   <si>
+    <t>charlespE9015AK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r497828390-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>Good value.  Could improve complimentary breakfast.  Stayed for 46 days.  No major problems.  Had a couple of days without hot water but problem was resolved quickly and efficiently.  Staff was very attentive and helpful.More</t>
   </si>
   <si>
+    <t>806renee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r494983283-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Overbooked and put me in a smoking room that should have been out of order...acted like everything was my fault...rude and do less....locked me out of mybroom...rolled her eyes at me when I asked for receipt...DON'T STAY HEREMore</t>
   </si>
   <si>
+    <t>tiernyb2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r493300826-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>Awesome employees, they're very helpful ,nice and respectful..  I love how patient they are when you walk into the office, breakfast are always out on time. They make sure everything is all together for they're guestsMore</t>
   </si>
   <si>
+    <t>kellim809</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r492642466-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>No toilet tissue.....had to buy my own or use facial tissue that clogged the toilet... was told there is no General Manager to order personal care items Cigarette burn on the upholstered chair 30 gal. trash cart left outside all day/night EVERY night of my stay soiled laundry care left outside all day/night for 2 nights of my stayMore</t>
   </si>
   <si>
+    <t>Donnie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r488919784-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -753,6 +822,9 @@
     <t>Room was not  clean.  Had to ask for  clean sheets  and  pillow  cases. Cobwebs  present. Staff didn't  even offer to make  up the bed.  Carpet looked like it hadn't  been vacuumed in a while.  My remote  died. No trash  can  in the room.  Horrible. Will never stay here again.More</t>
   </si>
   <si>
+    <t>DebyLovesVegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r488402467-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -777,6 +849,9 @@
     <t>Let me start of by saying that the hotel staff seemed pleasant enough.  However, their rooms were horrible.  To start, the paint was half-peeled off of my door (room 277).  Then we get into the room and the carpets were not clean at all.  There is a kitchenette area with a full-size fridge and stove top.  The stove top had about 2 inches of rust all around one of the burners.  NO silverware, plates, pots or pans.  The dining area had two bar stools and both of them had their seats ripped and one of them had something on it that looked like blood (I was telling myself it was hopefully just food).  The closet had NO hangers, seriously.  There were two of us in the room and we were provided with two towels and a wash cloth.  No bath mat, no hand towels. The one roll of toilet paper looked like it had been dropped in water, no extra roll to change it out.  I was very happy to leave in the morning.  Thank goodness we were only there one night.  We would normally have asked for a different room, but the check-in girl had let us know they were booked solid that night due to a concert at the AT&amp;T stadium.More</t>
   </si>
   <si>
+    <t>GetDrunkAlltheTime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r486005921-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -801,6 +876,9 @@
     <t>For a long stay this is a good place. You get the value for your money. The manager is very nice and understanding. The rooms are reasonably larege, and all appliances are in good working order. I have been staying here for more than 2 months on business. This is a very quiet place, I haven't seen a lot of kids. I will recommend this place. Fairly low rates.More</t>
   </si>
   <si>
+    <t>Hannah H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r484807657-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -825,6 +903,9 @@
     <t>My sister and I had been traveling all day with a 16month and 2-1/2 month old. We had a convention we were attending, but the babies were tired and hungry and we were looking forward to just going to our hotel, relaxing and letting them play. Things didn't go as planned. First we drove right by the hotel because there was no sign out front and trees completely blocking it. So with crying babies, had to figure out how to get back around to try again. Not the worst thing, but still super inconvenient when a simple sign would have helped. When we get there, I left my sister and the babies in the car to go check in and get our room keys. It was 6:00PM. I walk up to the lobby and there are about 8 people standing outside. There is a sign on the door saying they are out taking care of guest relations and will be back in 10 minutes. One of the people standing outside says she has already been waiting about 20. We wait at least 10 more minutes before anyone shows up. Finally it's my turn so I give her my name. She looks up my room and tells me "your room is not cleaned yet." Are. You. Kidding. Me. ?!?! She goes to check on the room (leaving me and several others to wait again). Comes back and says "they're in there...My sister and I had been traveling all day with a 16month and 2-1/2 month old. We had a convention we were attending, but the babies were tired and hungry and we were looking forward to just going to our hotel, relaxing and letting them play. Things didn't go as planned. First we drove right by the hotel because there was no sign out front and trees completely blocking it. So with crying babies, had to figure out how to get back around to try again. Not the worst thing, but still super inconvenient when a simple sign would have helped. When we get there, I left my sister and the babies in the car to go check in and get our room keys. It was 6:00PM. I walk up to the lobby and there are about 8 people standing outside. There is a sign on the door saying they are out taking care of guest relations and will be back in 10 minutes. One of the people standing outside says she has already been waiting about 20. We wait at least 10 more minutes before anyone shows up. Finally it's my turn so I give her my name. She looks up my room and tells me "your room is not cleaned yet." Are. You. Kidding. Me. ?!?! She goes to check on the room (leaving me and several others to wait again). Comes back and says "they're in there now; it will be 10-15 minutes til they're done." I ask if I can have our room at a discounted rate since I have to wait and its way past check in time. She says she is not authorized to do so. We finally get into our room after about 20 minutes. My sister lays her 2-1/2 month old on the bed. The bed is wet. I touch the other bed. It is wet too. So are the curtains. My guess is some sort of spray to make the room smell clean? It wasn't comforting. Our refrigerator froze everything we put in it. The shower curtain was moldy near the bottoms. Y'all. I wish I was exaggerating. Also, they say they serve breakfast. It's a handful of pastries and coffee. None of which was still out when we checked out at 10am. Not even coffee. Not at all the experience we needed or had hoped for our first overnight outing with the babies.  will stay far far away from this chain of hotels in the future.More</t>
   </si>
   <si>
+    <t>jackiendaddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r484778735-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -840,6 +921,9 @@
     <t>Visit to see daughter.  Location was literally around the block from her apartment, like two mins.  This was really the only good thing about the place.  Carpets are extremely dirty visible and gummy feel.  Had non-smoking room but still smelly stale smell.  made reservation for three people in the room.  We had our 8 year old boy with us but only two bath towels and one face towel and one hand towel. Included continental breakfast.  Not!!! it was  coffee and baby muffins like you might purchase at Costco or sam's club.  That was absolutely it.  fortunately my daughter was two mins away so we could truly cook.  Room had no dishes, silverware or pots and pans.  normal size fridge tho. Used $100 cash deposit because I didn't want to wait the advised 7 to 10 days refund as advised by the front desk girl.  Which the cash was still a concern for me as I had read a review were someone had trouble getting their cash back because manager comes in after  checkout time and had to be called by staff to come in and refund the guest.  True to that story I had the same problem  they  called the manager several times while I waited and they said she had told them she would be in in an hour a hour ago. She did not answer the phone while I waited.  returned two hours later and they did have...Visit to see daughter.  Location was literally around the block from her apartment, like two mins.  This was really the only good thing about the place.  Carpets are extremely dirty visible and gummy feel.  Had non-smoking room but still smelly stale smell.  made reservation for three people in the room.  We had our 8 year old boy with us but only two bath towels and one face towel and one hand towel. Included continental breakfast.  Not!!! it was  coffee and baby muffins like you might purchase at Costco or sam's club.  That was absolutely it.  fortunately my daughter was two mins away so we could truly cook.  Room had no dishes, silverware or pots and pans.  normal size fridge tho. Used $100 cash deposit because I didn't want to wait the advised 7 to 10 days refund as advised by the front desk girl.  Which the cash was still a concern for me as I had read a review were someone had trouble getting their cash back because manager comes in after  checkout time and had to be called by staff to come in and refund the guest.  True to that story I had the same problem  they  called the manager several times while I waited and they said she had told them she would be in in an hour a hour ago. She did not answer the phone while I waited.  returned two hours later and they did have my cash for me.  So many other nice places only 5-10 mins away from my daughter, which is near six flags, I will never stay at this or any other Extended Stay America in Arlington EVER again.  There was another location very close by that had bad reviews when I was searching.  I would never recommend anyone stay here.  I only gave the two stars because it was close to my daughter's apartment.More</t>
   </si>
   <si>
+    <t>AshMoore88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r476892898-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -867,6 +951,9 @@
     <t>I stayed at Extended Stay for a little over a month due to work. My stay there was pleasant thanks to Ms.Benson. At first, I was skeptical because I've never used Extended Stay but it turned out to be a decent stay. I will most definitely be using them again. More</t>
   </si>
   <si>
+    <t>Tony E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r476791818-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -885,6 +972,9 @@
     <t>Nailah Benson is the best. Great hire Carolyn. Need more like her. Great location to the football stadium, baseball park, and six flags. Reasonable price and the staff is extra friendly. I recommend the place too anybody More</t>
   </si>
   <si>
+    <t>akandrea29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r470564688-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1002,9 @@
     <t>Staff was not very professional throughout the stay, complaining about other staff or talking about guests in front of other guests. Our room did not have enough towels for the amount of people the room was booked for and when I went to the front desk to ask for bedding for the pull out couch, which had never been used and was still strapped closed and wrapped in plastic, I was told they didn't have any. Somehow the staff did come up with two fitted sheets, and told me that at least I got towels! The kitchen was bare, no dishes, silverware or anything. Lightbulb was missing in one of the lamps, and the so called breakfast was some coffee, which looked more like tea, and a couple of granola bars/ packaged muffins. The room was clean, but the tv only had scrambled reception. While waiting in the lobby, another guest was told that despite his reservation no room was available for him. I have stayed at other extended stays and this was far below my usual experience.More</t>
   </si>
   <si>
+    <t>Tucker S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r469649527-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1029,9 @@
     <t>The staff was very attentive and took really good care of me. I really enjoyed my weekend here and I'll definitely be back here again. I just love the friendly atmosphere and the staff is very friendly. Nailah is definitely deserving of employee of the month. More</t>
   </si>
   <si>
+    <t>loranscottfretwell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r468135512-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1056,9 @@
     <t>A/c didn't work. I was never offered another room. I was told it would be fixed the next day. ?? I would be gone then so I burned up. Thanks Loran Fretwell 214-475-9852.  932 Sunset Drive.  Irving,TX 75061More</t>
   </si>
   <si>
+    <t>FORGIVEN1130</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r464754838-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1086,9 @@
     <t>I stayed there for 2.5 months,I had no problems,Management&amp;Staff treated me like royalty! I would recommend this Hotel to everyone who wants a clean &amp; safe environment! They do an EXCELLENT job, in spite of it being an old building..More</t>
   </si>
   <si>
+    <t>Savanah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r464495798-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1107,9 @@
     <t>My husband and I have stayed here for an extended period while waiting to find an apartment there were some hiccups at first but all around customer service is great all the housekeeping seems like they could use some help really for the price the location and being pretty quiet we really have no complaintsMore</t>
   </si>
   <si>
+    <t>keithdevoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r463888091-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1134,9 @@
     <t>Carolyn Tijerina, General Manager is very helpful and very professional.  Great experience with my room, its clean and everything is maintained and in good condition.I recommend this place to everyone.Keith Devoe, Dallas TexasMore</t>
   </si>
   <si>
+    <t>eloso2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r463719926-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1161,9 @@
     <t>I picked Extended Stay in Arlington because of the 60-day deal and the proximity to work, as we were remodeling our home. In the 13 weeks we stayed there, I had to ask for the silverware &amp; pans for 3 days, there was never even one week that they cleaned the room correctly and left all the towels, bath mats, etc. they were supposed to, I had to go buy my own toilet paper because they ran out repeatedly, and I was usually in a line at the front desk behind others who were having the same problems. The last week we were there they didn't leave any towels because they were all dirty and the guy said I would have to wait until tomorrow because they only wash towels at night. Half the rooms were vacant but he refused to go pull towels from any of them. I asked to speak to the manager multiple times during the stay and was only contacted twice. The first time was the week the Cowboys were in the playoffs and the stadium is close by. Even though I was paid thru Saturday morning, manager Carolyn told me on Thursday that she couldn't throw me out until 11am Saturday but would if I didn't commit to at least another week. I called Guest Relations and was told I would be contacted by the District Manager, but that never happened. The second time was...I picked Extended Stay in Arlington because of the 60-day deal and the proximity to work, as we were remodeling our home. In the 13 weeks we stayed there, I had to ask for the silverware &amp; pans for 3 days, there was never even one week that they cleaned the room correctly and left all the towels, bath mats, etc. they were supposed to, I had to go buy my own toilet paper because they ran out repeatedly, and I was usually in a line at the front desk behind others who were having the same problems. The last week we were there they didn't leave any towels because they were all dirty and the guy said I would have to wait until tomorrow because they only wash towels at night. Half the rooms were vacant but he refused to go pull towels from any of them. I asked to speak to the manager multiple times during the stay and was only contacted twice. The first time was the week the Cowboys were in the playoffs and the stadium is close by. Even though I was paid thru Saturday morning, manager Carolyn told me on Thursday that she couldn't throw me out until 11am Saturday but would if I didn't commit to at least another week. I called Guest Relations and was told I would be contacted by the District Manager, but that never happened. The second time was when for 3 days I had been calling Guest Relations, the hotel, and even going to the office about an adjustment in the rate and Carolyn finally called me. Her first words were "what do you need to know so you will pay your bill?" While trying to explain my bill was paid up, she talked over me the entire time and told me I was locked out of my room until I paid for the next week. Guest Relations' answer to that was "if it was me, I would just find another hotel..." Sent an email to Customer Service two weeks ago but I guess they're all staying with the elusive District Manager at some other hotel... so will I next time.More</t>
   </si>
   <si>
+    <t>Karen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r460190160-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1188,9 @@
     <t>It looked clean until I got to the bathroom.   When I pulled back the shower curtain there was black mold all over the grout.   It took 2 days for them to get it cleaned up.   The walls were thing and we could hear our neighbor a lot more than we wanted to.More</t>
   </si>
   <si>
+    <t>Anton J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r438885790-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1215,9 @@
     <t>I had an excellent stay thanks to Asia. If it wasn't for her I wouldn't of had a place to stay for the night, because every other hotels were booked. I would really appreciate the opportunity to be able to stay there again. But in all THANK YOU !!!!More</t>
   </si>
   <si>
+    <t>mban1125</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r437603348-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1245,9 @@
     <t>This place was horrible below the surface. I will NEVER come back here on my life. The building and setup looked good, until further review. For one i wasn't aware of $100 deposit. Second upon getting the room, i was excited had a full sized fridge, stove, breakfast table. i was happy until i went ahead and started lifting up the sheets and checking pillows, i saw bed bug marks. I went to the clerk who gave me a different room to try (which was at least 7 times) If the room didnt have bed bug marks, dirty sheets, the bathroom was extremely dirty. One room was almost decent but had no light. I told the lady and she told me I would have to wait until 6am for maintenance to fix it! WHAT! SO i said give me some sheets and i would change the sheets from the first room. This lady tells me she dont have any sheets!!!!!! At that point the smoke came from my head. Anytime i asked her about the room she just had a nonchalant attitude. " I don't know about the rooms, i just work at the front desk" I'm telling you, the further down south i went during my trip, was the worst hospitality became.More</t>
   </si>
   <si>
+    <t>TravelinTiss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r433355912-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1275,9 @@
     <t>My husband arrived a couple of nights before I did because of work &amp; had to do a little cleaning. But when I got there to really unpack &amp; settle in, it took me half the morning &amp; almost a tub of cleaning wipes to make this place livable. Not one drawer in the dresser or kitchen had been cleaned in a good while. The phone &amp; nightstand were in the same shape. And knowing there would be two people in the room, we only had one washcloth. When housekeeping came to clean after the first week, she didn't leave any at all, nor did she leave a kitchen towel &amp; dishcloth. The front desk staff was friendly &amp; helpful, but other areas need major improvement. We've traveled coast to coast for his work &amp; like staying in hotels with a kitchen. We've stayed at Extended Stay before &amp; never had this problem elsewhere,More</t>
   </si>
   <si>
+    <t>Amanda-From-Austin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r427032305-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1302,9 @@
     <t>The front desk person put us on a second floor room in a building with no elevator even though we asked for an ADA accessible room.  My poor daughter was on crutches and we had a very hard time getting up the stairs.  When I tried to use a gift certificate I won at a military silent auction, they refused to accept it and claimed it was "no good".  Then they demanded $140.  When I tried to find out why the gift certificate wouldn't work, the manager on the phone started yelling at me and trying to make me out to be a bad guy like I was doing something wrong.  In the end, I asked to check out of my room and choose to drive three hours home (at 8 pm) instead of staying at their hotel.More</t>
   </si>
   <si>
+    <t>Carole R S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r422929898-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1329,9 @@
     <t>If you are looking for a place to sleep and there isn't anything else available, you might want to wait. The lobby is the size of a closet, the lady at the desk was nice enough, she could have used some help, but she was calm in the wake that flooded her all at once. The room, they didn't have a non smoking room, so I knew going in it was going to smell of stale smoke, it did. The room was very small. it did have a kitchenette, I like having a fridge and microwave, which were both clean. The bathroom was almost clean. One of the biggest problems I had was the tar and nicotine dripping from the ceiling in the bathroom when you steamed it up with a shower. YUK. I also felt my lips start to tingle and go numb.... something causing an allergic reaction, probably the fact it was a smoking room, but I did go to the store and pick up some Allergen reducer Febreze and after using the 16.9 oz. bottle... on everything including the walls, it was much better. The bed was lumpy and the bedspread was very cheap, that ended up in the cubby hole they called a closet. Not big enough to put a carry on size bag, and the wire shelf was broken so there was no way to use it for anything. TV receives about 15 channels. Location...If you are looking for a place to sleep and there isn't anything else available, you might want to wait. The lobby is the size of a closet, the lady at the desk was nice enough, she could have used some help, but she was calm in the wake that flooded her all at once. The room, they didn't have a non smoking room, so I knew going in it was going to smell of stale smoke, it did. The room was very small. it did have a kitchenette, I like having a fridge and microwave, which were both clean. The bathroom was almost clean. One of the biggest problems I had was the tar and nicotine dripping from the ceiling in the bathroom when you steamed it up with a shower. YUK. I also felt my lips start to tingle and go numb.... something causing an allergic reaction, probably the fact it was a smoking room, but I did go to the store and pick up some Allergen reducer Febreze and after using the 16.9 oz. bottle... on everything including the walls, it was much better. The bed was lumpy and the bedspread was very cheap, that ended up in the cubby hole they called a closet. Not big enough to put a carry on size bag, and the wire shelf was broken so there was no way to use it for anything. TV receives about 15 channels. Location was okay just off 360 N. not far from I20 and I30.  I will not stay here again. This is the second time I have stayed at an Extended Stay America property and I have been disappointed both times. Oh if you do stay with this chain and you want to use the kitchen, be sure to call ahead and tell them what you will need. I believe there is an additional charge, I am not 100% on that so you should probably ask.More</t>
   </si>
   <si>
+    <t>Jenny W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r418422321-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1356,9 @@
     <t>Booked on line for two nights. Prices bumped up for Cowboys game in town. Checked in and then Told that there would be no housekeeping during our stay! Breakfast was dismal.  A basket with a few granola bars and tea and coffee. No facilities or toiletries  in our room at all. Noisy a/c . If we had paid $50- $70 for this room it would have been acceptable just. Inflated prices. Ripped off. Reception was rude and indifferent. No smiles or even an acknowledgement we were at the desk! Will avoid extended stay hotels while on our travels.More</t>
   </si>
   <si>
+    <t>jellybeank3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r416245828-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1386,9 @@
     <t>Ive been here since march of this year with my 2 small dogs and it has been the perfect place to stay for me,front desk wonderful, housekeeping staff wonderful and maintenance man wonderful. I ave been here for going on 6 months now and have no complaints will stay as long as I'm on this contract as a traveling nurse.More</t>
   </si>
   <si>
+    <t>44MDM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r393709528-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1416,9 @@
     <t>The location was conveniently located to the AT&amp;T/Dallas Cowboy Stadium. We were there for the annual AdvoCare Success School. Rooms close to the stadium typically fill quickly for this event. We didn't spend a lot of time in our room but when we were there it was quiet and we were able to get the rest that we needed.More</t>
   </si>
   <si>
+    <t>matthew t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r386802291-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1443,9 @@
     <t>Average hotel with a good location. I was able to stalk and kill two water bugs in my room while there. I booked and payed online, and during check-in was charged another $100 for a deposit which was not stated on the website.More</t>
   </si>
   <si>
+    <t>luishoyo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r386277084-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1470,9 @@
     <t>First of all, the conditions of the property are deplorable. The rooms are simply disgusting, dirty and deteriorate; having no resemblance whatsoever with the photographs posted on the website. $100 a night?? Has to be a joke.  I had booked a NON Smoking room with two twin beds. In change, not until I when to the room was I made aware that it was a SMOKER'S Room, with a King Size bed. When I returned to the front desk to let the receptionist that the room given to me was not what I had been promised, here reply was: "Yes, I know but this is all we have available".  My question is very simply: When I checked and before being asked for a $100 deposit; Why was I not told that y booked preferences could not be satisfied?More</t>
   </si>
   <si>
+    <t>Trina J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r377054845-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1354,6 +1498,9 @@
   </si>
   <si>
     <t>My husband recently relocated to the Dallas area for work and found this a great place to stay. The rooms were clean and the kitchen area was quite large. It felt very homey minus being home with the family. He's looking for something more permanent and may consider here if we can't find more affordable temporary housing. The only downside, he said, was that the wifi wasn't that great and we couldn't skype with him being away.More</t>
+  </si>
+  <si>
+    <t>Keane B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r365610985-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
@@ -1382,6 +1529,9 @@
 I drove back to the hotel in person to discuss with the lady and to retrieve my laptop, however, the lady said this was not her problem, she had just come on her shift and knew nothing about it and nothing had been turned in and she could not let me in the room because it was occupied.  I asked to speak with her manager.  She called her manager on the phone and her manager did not want to come down and speak with me, but told her to get...I stayed at this Extended Stay America and checked out on March 15th.  After checking out and getting down the road a ways, I realized I did not have my Apple laptop with me and had left it in the room.  I called the hotel to notify them that I had left the laptop in the room and the lady that answered the phone said that she had just come on her shift and that no one had reported a laptop found and she knew nothing about it.  She asked what room number and I gave her the room number and she said that the people in that room had just checked in the day before.  I told her that was impossible because I had been in that room and had spent two night in the room and had checked out that morning.  She said the room was currently occupied.  I drove back to the hotel in person to discuss with the lady and to retrieve my laptop, however, the lady said this was not her problem, she had just come on her shift and knew nothing about it and nothing had been turned in and she could not let me in the room because it was occupied.  I asked to speak with her manager.  She called her manager on the phone and her manager did not want to come down and speak with me, but told her to get my contact info.  I told her I knew exactly where I had left the laptop and if she would please open the room so I could retrieve it.  She refused and said that it was occupied and apparently a guest had asked to switch room and they had moved that guest into my room once it was cleaned and that is how the computer system reflected that the person in my room had checked in the previous day (the day i still occupied the room).  I called the Arlington police department once the staff refused to allow me to see if the laptop was in the room and the manager would not come down to talk to me.  The Arlington PD took a police report over the phone.  The lady at the front desk said she had my contact info that she had taken down at her manager's direction and the manager would be getting in contact with me.  I never heard from the manager or any of the staff from the hotel again.  I did hear from an insurance adjustor rep of Extended Stay by the name of Jerry Lambert out of Louisiana about 5 days later wanting to know what happened.  I told him he was the first person that I had heard from since the incident and never had heard from the manager after taking my contact info, not even a courtesy call.  He listened to what happened and then asked how I planned to prove that Extended Stay...More</t>
   </si>
   <si>
+    <t>Steve T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r361296247-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1400,6 +1550,9 @@
     <t>Came in on a Sunday morning after having to leave the Ghetto 6 I mistakenly tried to stay at.  Advised the clerk I was in town on business and needed quiet, a top floor and internet.  They didn't have any rooms ready at the moment however said give them a couple of hours and they would have a room ready.  Went to the Cracker Barrel in the adjacent parking lot for breakfast and when I returned the room was ready.  Room is very quiet as well as the parking lot.  Shower had exceptional water pressure.  Internet was adequate.  Microwave was small and older however got the job done.  Laundry is onsite with 6 washers and driers.  Perfect place for long term out of town business travelers. Ended up staying for 6 weeks and look forward to coming back when in the area.More</t>
   </si>
   <si>
+    <t>crawforddoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r347997264-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1580,9 @@
     <t>The staff was very helpful when I arrived and called after I got settled in to make sure everything was ok. I highly recomend this location if ever in the Arlington tx area. I will definetly stay here again.More</t>
   </si>
   <si>
+    <t>Detra V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r345011745-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1598,9 @@
     <t>My visit to the Extended Stay America in arlington has been very nice. The room is very clean and spacious... The management team and staff do a wonderful job here, I'm 100% satisfied with my visit... I would like to personally thank Miss Karen, Miss Kendra and Miss Yvette for all their kindness and personal touches to satisfaction</t>
   </si>
   <si>
+    <t>Shawn8_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r337406304-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1469,6 +1628,9 @@
     <t>I got an email saying "your spacious suite awaits you"--ha! It was probably the smallest room I have ever stayed in.  There was an elastic hair tie on the floor by the bed, clearly visible, so the room was not that well cleaned.  There was a black mark on one of the sheets, seemingly from the washer or dryer, because the sheets looked/felt clean, but should not have been used.  The room is baby poop brown, with dark brown curtains-depressing.  The heating unit was noisy. I couldn't get the internet to hook up.  I will say the women who worked at the desk were very friendly.More</t>
   </si>
   <si>
+    <t>Brittiany M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r336320989-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1655,9 @@
     <t>The room was so small. I felt clostraphobic there weren't hardly any lamps. The room was clean, they charged me after I paid on this app but they refunded my money. I would stay again but I'd voice my concerns at check-in.More</t>
   </si>
   <si>
+    <t>john m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r325078797-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1520,6 +1685,9 @@
     <t>I have been here for 3 nights and I am very disappointed. When I first came in the room, 2 lights did not work. Then when I pulled back the cover there was a "brown" stain on my sheets. The shower curtain is 2 " short and when you take a shower the water runs out on the floor. To get new towels, wash cloths, or hand towels you have to go to the office. Overall it is very dissapointing.More</t>
   </si>
   <si>
+    <t>Sheyka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r310577898-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1715,9 @@
     <t>We booked 2 rooms for the opening season Dallas game. The location was perfect forour visit. We realize that this ESA is quite busy because of football season and Six Flags. We were so excited until we opened the door to our rooms. The rooms were so small (nothing like the wedsite images). The carpet was filthy, the bathroom tile and shower curtain had mold and hair. A cockroach haven.  It was really nasty. The  kitchen was not at all equipped for meals we had planned on ( loss of appetite anyway) No other rooms were available at ESA or other hotels because of the big game. We were stuck with these nasty rooms. SHAME ON YOU management. Who the heck is responsible for this? Obviously someone who doesn't care what their living surroundings are like. No excuse for dirty no matter how busy the place is. I don't know what bedbugs look like...I just hope we didn't bring any home. Sincerely, MaryAnn SMore</t>
   </si>
   <si>
+    <t>plumberman43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r305270097-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1743,9 @@
   </si>
   <si>
     <t>This is my third time staying at this hotel and the previous times have been fine. Check into room 275, open the door and notice how dirty the carpet was, hair everywhere in the room, sink, shower and in the bottom of the refrigerator. Didn't have time to change rooms. Stay away from the room, the two days I were there.More</t>
+  </si>
+  <si>
+    <t>AOK226</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r286193512-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
@@ -1607,6 +1781,9 @@
 I decided not to stay that night. I called the desk and told the woman there that we were leaving. She told me to leave the keys in the room. I did so and drove the hour back to my hometown - which was the very...I booked this hotel through a third-party company, so I didn't know what hotel I was selecting. I only knew that it was a two star venue in the vicinity of Arlington. The intention was just to book a place to sleep and shower in the middle of our Independence Day activities. I expected no-frills - but I didn't expect the level of dirtiness I found here. I travel extensively and usually stay in upper-end hotels, but no matter what I always expect a hotel to be clean. Upon check-in, I received room 203. This room was unlocked when I arrived to it. There were feces stains on the toilet, blood on the cover of the bed, and candle wax drops on the sink. There was dirt or ash on the bathroom floor. I immediately called to ask for another room. The front desk was perfectly nice about my request. My next room was locked...but upon entry there was trash in the waste bin, the shower had been used and wasn't clean (hair on the walls and floor), and the room had not be cleaned from the look of the rumpled bed and towels. I decided not to stay that night. I called the desk and told the woman there that we were leaving. She told me to leave the keys in the room. I did so and drove the hour back to my hometown - which was the very thing that I had been trying to avoid given holiday traffic and possible drinkers on the road. I would avoid this hotel at all costs.More</t>
   </si>
   <si>
+    <t>Steve G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r275425654-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1634,6 +1811,9 @@
     <t>Stayed here a couple of weeks ago for around 8 nights. The room was the worst room i have aver stayed in and I have travelled extensivly around the US. the room smelt, was disgusting, dirty, bathroom was mouldy, dirty. Carpet stunk had to wear thongs around the room because the carpet was filthy.More</t>
   </si>
   <si>
+    <t>tom b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r257566942-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1661,6 +1841,9 @@
     <t>We had a make a last minute reservation due to an early morning flight and expected bad weather.  Hard to find the "lobby/check in area", they were remodeling.  "Lobby" entrance was poorly lite since bulbs were missing [see review title!].  Checked into the room,  smelled of cigarette smoke in a non smoking room.  Tried to turn the 2 lamps next to the bed on, nothing.  NO LIGHT BULBS.  Went into to the bathroom, NO TOWELS. Just a floor mat.  Went to the front desk.  They couldn't find any light bulbs either.  We mentioned the towels and were handed 2 hand towels.  That's all they had at the front desk.  Mentioned the cigarette smell,  they had charged the previous guest $200.  Great,  but it still smelled. We were then moved down the hall where we had a almost complete room.  No dishes, etc, didn't need them.  No hair dryer and very little hot water at night or at 5 am when we were leaving.More</t>
   </si>
   <si>
+    <t>saltydo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r251472766-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1676,6 +1859,9 @@
     <t>I really enjoyed my stay at hotel. The staff was always friendly and very accommodating. I would strongly recommend this hotel to any of my friends and family. The location is convenient to major highways and close to entertainment venues.</t>
   </si>
   <si>
+    <t>ree l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r251359961-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1703,6 +1889,9 @@
     <t>I've stayed at many due to pleasure and homelessness. I love this place! Its spacious.... House keeping could be a lot better. The office staff is very nice! Its clisevto stores and restaurants and I like the setup. All the extended stays are different so it I enjoy seeing the updated properties its easier to compare. Reasonable price too!More</t>
   </si>
   <si>
+    <t>Nicole A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r249726512-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +1914,9 @@
   </si>
   <si>
     <t>Bring your own hair dryer.  Bring extra towels if you need more on the given day.  You are only given 2 bath, 1 hand and 1 wash cloth.  They will change them out if you bring them all to the front desk and give you a new pack but no extras.  No dishes, pots and pans, etc.  Beds were surprisingly comfortable - nothing fantastic but I am normally picky and these were okay.  Very close to the stadium which is why we originally choose it.  We were a little sketched out at first overall but it worked fine since we were not in the room much.More</t>
+  </si>
+  <si>
+    <t>ManyTravelsGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r249517126-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
@@ -1751,6 +1943,9 @@
 However, upon arrival the staff was friendly and informative of what the facility had to offer. The check in area/front desk is not very big so if there...As an avid Trip Advisor contributor, and reviewer reader- I made a hasty, last minute, online reservation to a cheaper hotel in the area of where the 1st College Football Championship would be played (Arlington, Texas) and THEN checked trip advisor after the booking. Our primary visit was to attend The Ohio State University Buckeyes vs the Oregon Ducks College Football Championship (Go Bucks!) – and also to take in local attractions and the Dallas/Fort Worth area. in general, if I'm in an area for two days or less, I will book of four or five star hotel. However, knowing that we would be in the area for approximately four days, I knew I wanted a room with a microwave and refrigerator at minimum to do our own meal prep. So when I was booking our trip online, the price of the hotel to have an in room kitchenette seemed very reasonable compared to the others in the area. And then I got on Trip Advisor…If you have looked on here for the same hotel, then it is needless to say you know what the reviews have said. After booking a nonrefundable stay for four nights, and reading the reviews, I was more than hesitant to occupy this brand / location.However, upon arrival the staff was friendly and informative of what the facility had to offer. The check in area/front desk is not very big so if there are other patrons in the lobby be aware of the space/lack of privacy.Once we received our keys we drove around and proceeded to our room. ADVISORY- this is a hotel which you enter the rooms from the EXTERIOR of the hotel, not from an interior hallway! I didn't know, and wouldn'tve have chose it, knowing so for general safety/security reasons-- so I want others to be aware- if this bothers you as well, then move along in your options! Upon entrance, unfortunately, we noticed a slight cigarette smoke scent (some of the rooms are smoking). Fortunately, it had not infiltrated our bedding or towels, so we did not make mention of it. The room was clean, but definitely not up to a five-star room cleanliness standard. In general, the room was livable for the purpose of the visit, however our unit did not have a clothes iron or blow dryer which I'm not sure are standard for this brand anyway. Also, it is an "extended stay" facility, meaning no daily room service or turndown- if you need toilet paper, new towels, toiletries, etc- head to the front desk. (They do, however, offer a daily maid service for an extra fee) Since this was my 1st experience at an "extended...More</t>
   </si>
   <si>
+    <t>Elizabeth K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r237491913-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1778,6 +1973,9 @@
     <t>So my husband and I reserved a room since we were going to the cowboys game on Sunday. We got in very late.. Like 5am late. The lady up front was very nice but the room was atrocious. It smelled horribly of smoke and there were dead and some dying bugs on the table and bugs on the bed and floor. Even a pube in the bathroom. We absolutely could not stay so called the hotel across the street to stay.(luckily there was room or we would have slept in the car.) The next day I called for a refund and they gave one with no questions asked.. Which is good but, we did not receive one single apology for the conditions of the room!More</t>
   </si>
   <si>
+    <t>Dori S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r235364593-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1796,6 +1994,9 @@
     <t>On Friday, Oct. 17, 2014 I called to make a reservation while I was traveling via car to Dallas. I was told that I had to cancel by 6pm, but at no time was I told that the room is pre-paid daily.  I arrived at the hotel around 10:45 p.m. after 8.5 hours on the road.  There were two Guest Service Agents standing at the desk complaining about another guest who was requesting more towels.  I waited patiently about 1 minute before being greeted or acknowledged.  Finally one of them said "yes, may I help you!"  She seemed rude from the onset.  I told her I was there to check in.  She asked me for my i.d.  I provided it.  She asked handed me my room keys.  I told her that I wanted to ensure I was able to pay cash at the end of my 2 day stay and that the credit card provided was to hold the room, not to be charged.  She became argumentative stating that she had already completed her audit and I had to either let her charge the card or pay a $100 deposit plus the first night's room fee.  I told her that I was not informed of the policy.  She said "if you don't like the policy, call corporate!"  At that point, I got angry and told her that I was being inconvenienced and as her guest she needed to do whatever...On Friday, Oct. 17, 2014 I called to make a reservation while I was traveling via car to Dallas. I was told that I had to cancel by 6pm, but at no time was I told that the room is pre-paid daily.  I arrived at the hotel around 10:45 p.m. after 8.5 hours on the road.  There were two Guest Service Agents standing at the desk complaining about another guest who was requesting more towels.  I waited patiently about 1 minute before being greeted or acknowledged.  Finally one of them said "yes, may I help you!"  She seemed rude from the onset.  I told her I was there to check in.  She asked me for my i.d.  I provided it.  She asked handed me my room keys.  I told her that I wanted to ensure I was able to pay cash at the end of my 2 day stay and that the credit card provided was to hold the room, not to be charged.  She became argumentative stating that she had already completed her audit and I had to either let her charge the card or pay a $100 deposit plus the first night's room fee.  I told her that I was not informed of the policy.  She said "if you don't like the policy, call corporate!"  At that point, I got angry and told her that I was being inconvenienced and as her guest she needed to do whatever she could to accommodate me.  Afterall, credit cards as reputable hotels are used to hold the room and are only charged upon check-out.  She told me, "if you give me attitude I will give it right back!"  I could not believe this.  Before walking away from me, she looked at her co-worker and said, I don't want to help her! The co-worker stayed over to the right leaning against the wall and I said... well, are you going to help?  She said, I cannot refund your credit card. She is the only one able to do that.  I said, well it seems as though we have a problem because SHE walked away.  My 27 year old son became extremely agitated at the terrible customer service and began yelling "She has no business working in a guest contact position. This is ridiculous!"  I had to calm him down. The GSA that was left to help me was going back and forth from the front desk to the back acting as a liaison between us and her very rude co-worker. She handed me a piece of paper to sign and said this is the refund that will be going back on your card.  I asked her for a copy.  She made the copy and then took a call on her cell phone while I was still speaking to her.  She walked away to the back on the cell phone. She never answered my question.  I left.  I called Reservations...More</t>
   </si>
   <si>
+    <t>evelynkennedy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r233997477-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1820,6 +2021,9 @@
     <t>The room was clean nothing fancy but clean and ok for 2 nights. The girls that checked me in were friendly and helpful.The only complaint was it is a kitchenette but no cooking pans and microwave did not work.More</t>
   </si>
   <si>
+    <t>acobb1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r218280308-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1844,6 +2048,9 @@
     <t>I was here to help a friend move and made reservations for a non-smoking room, but when I got there unbeknownst to me they gave me a smoking room. Once I entered the room, I noticed there was a huge red stain on the carpet. Then I noticed stains on the pillow cases, pillows, mattress pads, mattress cover and mattress.  The kitchen table had cigarette burns as well. I was only at the hotel for 30 minutes,  notified the staff of the atrocities that witnessed and asked for a refund. Unless they remodel the whole hotel I would not recommend anyone to stay there.More</t>
   </si>
   <si>
+    <t>ramon560</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r217429534-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1871,6 +2078,9 @@
     <t>We stayed here for a week and we were pleasantly surprised by our experience. We rarely stay anywhere for that length of time so our friend booked us this property at a reasonable rate. The front desk staff were very friendly and helpful.My only complaints were that the phone in our room didn't work and they never seemed to have a lot of extra towels. We had to go a day without towels because simply didn't have any.Since it is an extended stay hotel there is no daily housekeeping though they do give you the option of having your room cleaned more than once a week for a fee.It is closest to Six Flags and the Rangers and Cowboys Stadiums are not far at all.I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>Mariel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r214726749-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1887,6 +2097,9 @@
   </si>
   <si>
     <t>My husband and I stayed at this hotel over the 4th of July weekend. If I would have know how disgusting it was by no means would I have stayed. We arrived later than we were planning to, we were exhausted from our trip and when we arrived the lobby was completely shut down. We rang and no one was there we had to call the phone in the door several times for someone to finally open the lobby for us. When we arrive to the room the trash was never taken out, it had a nasty old corn dog and other junk food from the previous stay, it smelled like cigarette. And to top it off we did not even receive hand soap or towels. At night this strange man was just in his truck smoking god knows what just next to our car. Rooms are very small, please stay away from this nasty cheap hotel.More</t>
+  </si>
+  <si>
+    <t>HornJock</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r214306277-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
@@ -1920,6 +2133,9 @@
 I do feel sorry for the very nice young lady at the front desk because I know all of...By no choice of my own, I, along with a large group, was forced to stay in this undesirable location for an entire week.  The filthy conditions were deplorable, the smoky stench in the alleged "non-smoking" rooms, non-breathable.  My bathroom floor was covered in black hair (not my color). the utensils in the kitchen coated with what appeared to be long-ago scrambled eggs along with unwashed forks and spoons in the drawer.  Towels were the tiny, industrial-sized, scratchy rags we had in junior high P.E. back in the 60s.  One member of our group checked into his room to find a friendly, gray tabby cat waiting for him.  Another found a half-consumed bottle of whiskey and an unmade bed, and yet another was greeted with empty beer cans, a stripped bed, and condom wrappers.  I've never been in a place that made you feel like you had to shower right before bed and then immediately upon awakening.  I tried air freshener spray to alleviate the smell and cut the smoky stench, but to no avail.  After two nights of waking up to a sore throat and irritated sinuses (and yelling, screaming, and breaking bottles in the parking lot just below my door), i moved to another property at my own expense even though this hovel was paid for by our company.I do feel sorry for the very nice young lady at the front desk because I know all of the problems are not of her design.  I hope she can get on with a solid and reputable hotel if she so desires, She deserves better than this third-world rathole.More</t>
   </si>
   <si>
+    <t>KARA B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r213827375-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1944,6 +2160,9 @@
     <t>The lady at the front desk was very nice. Our room was clean. For the price and location my stay was great. The only problem I had was the bed was pretty hard to me. Also, if you get a building towards the front like I did you hear the traffic noise. I would stay here again. More</t>
   </si>
   <si>
+    <t xml:space="preserve">Cbelleee </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r209754240-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2187,9 @@
     <t>The moment we drove into the Parking lot, trash was everywhere and we felt like we were in the projects. When we walked in the smell hit you right in the face. We had to hold our breath just to make it to the elivator. When we made it to the third floor (the non smoking section) there was no air! And smelled 100% like cigarettes. It was so hard to breathe. When we opened our room it smelt like paint. Working our way to the bathroom we noticed white paint everywhere! They spray painted the mold!!!!!! Under the sink was a huge puddle of mold. I don't understand how spray painting the mold would make it go away. The room was extremely disgusting. There were boogers all over the walls by the beds, which looked like they tried to paint over. I would not recommend this place to anyone!!More</t>
   </si>
   <si>
+    <t>Rain Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r209144213-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1986,6 +2208,9 @@
     <t>I arrived at about 11 and was told there were no rooms available.  This sort of situation is understandable, so I went out while waited.  I came back and was told there were still no rooms, funny thing is that I heard them discussing three rooms that were ready, just for someone who had not yet arrived.  I guess they were more important than I was.  To me they just said they are cleaning the smoking rooms first. Would it not make sense to clean the room for the guest who is there waiting first?  I will say that the evening service was far superior.  The room itself had tons of bugs in it, not roaches, but various other beetle like things.  There was one that was so big it didn't die even after I threw a shoe down on it.  The rest of the room was alright, minus the sink that had carvings all over it from some previous guest, oh and the bathtub that does not drain.More</t>
   </si>
   <si>
+    <t>ward7785</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r207961884-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2007,6 +2232,9 @@
     <t>If the price is too good to be true, then the truth is probably that the place is no good. And that's the case with this Extended Stay on N. Watson and Hwy 360. The room stank even though it was supposedly a non-smoking room. However, the smell wasn't the worst part; there were shirtless, shoeless, scummy-looking people wandering around and living out of these rooms as though it was welfare housing. The parking lot was full of trash and broke-down cars.I turned right around and got my money back and went to a better, more-expensive-but-worth-it hotel nearby.Do not attempt to stay at this hotel unless you REALLY don't care about safety or peace of mind.More</t>
   </si>
   <si>
+    <t>travelerV1065QX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r204016233-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2034,6 +2262,9 @@
     <t>We stayed at this hotel while in Arlington for a wedding.  It was 'ok'...but that's about it. The location was gated and room was clean.  Though on hwy 360 we couldn't hear road noise from where we were (about halfway back).  The rate was probably one of the less expensive in the area that had decent reviews here.  It was next door to a Cracker Barrel which was nice. The negatives were the bed - it was NOT good.  My husband ended up with an aching back the next day and we had to drive home.  They advertise a 'grab and go' breakfast, but all they had was coffee and 2 breakfast bars when we went in.  (We decided to go to Cracker Barrel after seeing what they had to offer)  We were not cooking while there as we went to a wedding reception, but if we had been, the kitchen was not fully stocked...and we would have had to either go to the front desk to ask for more or figured out a way to make it work with only 1 fork.   I rate this at 3 of 5 stars -More</t>
   </si>
   <si>
+    <t>Gina K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r200239161-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2052,6 +2283,9 @@
     <t>We were in town for the Final Four activities and stayed 3 nights.  Our room was fine except for the strong smoke smell and the lack of a blanket on the bed.  I've never stayed in a hotel that thinks the gross bedspread should also be your blanket.  When we asked for one at the front desk, they said they just gave the last one away. Really?  If you have a sister hotel just a few miles away you may think of checking to see if they would have the amenities and if they could send some over.  Blankets should be standard.  We didn't utilize the kitchenette except the fridge.  It was pretty quiet during our stay so no complaints about that.  There is a Cracker Barrel restaurant right next door and a Wendy's and gas station within walking distance. Other than that, there isn't too much to get to within walking distance.  The Cowboy and Ranger stadiums are a short 10 min drive.  Dallas is more like a 30 minute drive on a weekend.More</t>
   </si>
   <si>
+    <t>Tonya E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r197660087-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2079,6 +2313,9 @@
     <t>I think this was the worse hotel I have ever stayed in.  My room was changed from a double to a queen w/ sleeper sofa w/o my knowledge.  When we got into the from it smelled like throw up. It had no pots, toilet paper, soap, or towels.  The cable in the room did not work.  Someone brought a pot and aid freshener and I picked up the toilet paper, soap.  They sent over a maintenance worker to fix the cable.  Meanwhile, I  took my kids to six flags and returned later. The room still smelled and when they pulled out the sofa bed it was not clean.  It had a dirty red sheet on it, chocolate morsels and other food particles on it.  It even had a medicine cup and child's boot folded up in it.  The front desk was kind enough to comp. my stay for the night but we were moved to a single bed room for the night as it was said there were no other rooms available.  It was uncomfortable w/ a14(boy) &amp; 9(girl).  We were moved back to the other room the next afternoon and it was clean but still had a bad odor.  I purchased my own air freshener.More</t>
   </si>
   <si>
+    <t>Miguel D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r186250205-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2097,6 +2334,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>RDW2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r185367629-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2115,6 +2355,9 @@
     <t>My wife and I stay 3 nights at this Extended Stay facility and we were both impressed with not only the physical facility but also the staff.  We were greeted by cheerful young ladies who offered us additional soap, shampoo, etc.  I was attending a 2 day SQL Server event that was split between the Microsoft campus and the UT Arlington campus.  This facility was nicely located for each if those.The room included a kitchenette with a refrigerator,  microwave,  and cooktop along without some cookware, some plates, silverware, bowls, cups, and glasses.  All in all, especially for a longer stay, this would be a great choice.  (It is also fairly convenient to the Arlington Six Flags. ;-)  My wife and I recommend this facility highly,  especially for the price!More</t>
   </si>
   <si>
+    <t>Minique831</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r180280743-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2133,6 +2376,9 @@
     <t>To be honest, I had an issue with the service there leading me to beleive Extended Stay America does not value their customers but I was wrong. The day after check out I received an email from ESA asking me to review my stay. I completed the survey including my disappointment with the service and to my surprise I received a verp prompt email from the ESA manager appologizing for the disappointing stay and offering a voucher if I would consider staying at Extended Stay America again. I responded to the email and soon after received another email from the GM also appologizing and including a very kind attempting to make thing right. The fact that both the Manager &amp; GM took the time send me an email regarding the survey really showed that this nationwide company does care about their each customer. Thank you Manager &amp; GM!! I will defiantly stay at Extended Stay America again.More</t>
   </si>
   <si>
+    <t>sweetiepie791</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r176944067-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2157,6 +2403,9 @@
     <t>The staff were extremely rude and unconcerned! My husband is handicap and we were put in a room upstairs! The room smelled like smoke but had a no smoking sign outside the door. The microwave didn't work. The bed was uncomfortable. The staff refused to bring us towels and tissue when our room didn't have it. I will never ever stay there again! More</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r172996394-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2184,6 +2433,9 @@
     <t>Very friendly hotel staff.  Made reservations online - good rate.  Reserved for 2 weeks.  Check-In staff was friendly.  After 2 days at my job I was told I would only be needed 2 more days.  I went back to the hotel to see that they could do and the clerk was friendly and helpful.  She put a credit on my credit card.  Then 2 more days later I was told at work I would be needed for another week.  I made another visit to the office, the manager was there that time. He was friendly and put the credit back on my card.  Very friendly staff.  Room was clean and alwayscleaned each day.  Exterior of hotel was always clean.  Next door to Cracker Barrel.  Just offHwy 360.  No traffic noise in hotel.  I would return.More</t>
   </si>
   <si>
+    <t>SukupFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r172120638-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2205,6 +2457,9 @@
     <t>The staff at this hotel was rude and not very helpful. When we walked into the hotel by the door there was a bag of trash sitting there. It sat there the whole 3 days we were there. As we walked the hall to our room there was a horrid smell of smoke and mold and when I walked by the AC unit in the hall by our room there was in fact mold growing on it. Once we got into our room it stank like mold too. There were huge red stains on the carpet and exposed wires under the dishwasher. Not safe if you have small children. Over all I would not stay here again!More</t>
   </si>
   <si>
+    <t>sc0tt067</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r170966235-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2229,6 +2484,9 @@
     <t>I was at this hotel for 5 months and had no issues to speak of and it was an extremenly good value for the money.  Good beds and pillows, reliable internet and convenient to area attractions and restuarants.More</t>
   </si>
   <si>
+    <t>160LauraL160</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r169762252-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2250,6 +2508,9 @@
     <t>I booked the room 2 weeks in advance as a double bed suite.   Called on my way to make sure they had my reservation and what time the lobby closed.  Was told on the phone that they didn't have the 2 bed suite but was able to put my friend and I in 2 separate rooms at a reduced rate, I said ok.  When we finally arrived at the hotel, one of the rooms wasn't even cleaned and had a funny smell to it.  The other room although "clean", smelled really badly of cigarette smoke even though it was "non-smoking".  The girl at the front desk was very nice about it and even went and cleaned my friends room.  After driving 2300 miles from Washington State, I was completely disappointed.  The pictures that they show certainly are not what the rooms look like, nor was my kitchen fully stocked.  Was missing utensil and cooking pans.I also found that Kelly could be a bit on the cold side, but the rest of the staff was more than helpful.  I never had any issues with roaches and only saw one that was on the outside of the room.  I wouldn't have stayed there for the 2 weeks that I did but really didn't have the time to find another place to stay.  I certainly wouldn't stay there again.More</t>
   </si>
   <si>
+    <t>EthanA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r166631318-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2535,9 @@
     <t>the first time I arrived, they didn't have my reservation booked and I was forced to stay at another hotel until the following day when they finally had a room. the worker, Kelly, was so rude and had an attitude the whole time. she seems to not care about anyone who tries to stay there, and is basically just in need of an attitude adjustment. the other workers at the desk were very nice. I stayed for 3 weeks and room cleaning never have me the correct towels, or ran out of them. I had to go down there every week to just fix what the maids messed up. I was in a bad situation and had to stay here, but if you have a choice look otherwise. More</t>
   </si>
   <si>
+    <t>PUREGRAPE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r166526981-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2298,6 +2562,9 @@
     <t>Unfortunately the stay was really disappointed. Two of the front desk girls where awesome helped with whatever needed to be done really friendly manager did a great job with the situation with roaches. But there is one person that made our stay so complicated dontknow why and really dont care at this point. Ur stay was a longer stay and she checked us out before our time. Schedule our room for some other people and couldnt accomated us. basically kicked us out before. All because of her low work ethic. Ms. Kelly was always with an attitude seens the first day we saw her unfortunately they need to find her another job. People that treat others with no respect not knowing situations need to get out of what there doing so they can be happy. Becareful of coming here to stay you never know if Kelly wakes up with an attitude or maybe your face is not pleasing to her and leaves you sleeping in the streets with the comment oh!! yeah is because we dont have any rooms when your paying and been staying there for a time.More</t>
   </si>
   <si>
+    <t>TNguyen3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r165327142-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2316,6 +2583,9 @@
     <t>Ok, so i booked this hotel for just an one night stay on the same day and could not be happier to be able to get it through pricline with a great price! As i was staying with Extended Stay America many times before, i thought i would have got another pleasant experience as before but this one is a unforgetable in a horrible way! I was put in a non-smoking room but at the second i open the door, i could not stand but sneezing non stop because the room smells so bad. Everything else is acceptable for the price in paid. But then, at 2:30 in the morning, i heard someone tried to open the door, i ignored it thinking it was the room next door, but all the sudden the door opened. Luckily i have carefully locked the upper lock so the lady that tried to get in my rolm could not open all the way out. Oh Lord i was scared to death as i was a lady staying by my self at a hotel. The lady then walked away but i could not go back to sleep. I called the front desk asking for some help and explanation but the lady who picked up the phone said she had no idea what happened and how the lady could open the door. I then asked if she could have somebody go check out at my room...Ok, so i booked this hotel for just an one night stay on the same day and could not be happier to be able to get it through pricline with a great price! As i was staying with Extended Stay America many times before, i thought i would have got another pleasant experience as before but this one is a unforgetable in a horrible way! I was put in a non-smoking room but at the second i open the door, i could not stand but sneezing non stop because the room smells so bad. Everything else is acceptable for the price in paid. But then, at 2:30 in the morning, i heard someone tried to open the door, i ignored it thinking it was the room next door, but all the sudden the door opened. Luckily i have carefully locked the upper lock so the lady that tried to get in my rolm could not open all the way out. Oh Lord i was scared to death as i was a lady staying by my self at a hotel. The lady then walked away but i could not go back to sleep. I called the front desk asking for some help and explanation but the lady who picked up the phone said she had no idea what happened and how the lady could open the door. I then asked if she could have somebody go check out at my room but she then refused and said she was jusy the laundry person and could not do anything, if i want to change to another room, i have to walk to the front desk for her to be anle to help me. Man, i was freaking out, how can i open the door and walk my self to the lobby while the building im staying at is a different building with the one the lobby at, and it's 3:00 am in the morning??!! Hopelessly seeking some help from the hotel, i had to called my friend out, he then escorted me out to the lobby, we called the phone, the same lady picked up, we asked her to open the door to give her back the key room, she could not hesitate to open the door for apologize or whatsoever instead telling us that we just leave the key in the room... WTH???! we then had to leave the key in the phone box, speechless to the bad bad customer service. I was running around looking for a place to stay exhaustedly. The morning after that, i came back to talk to the manager but he was not there, so the one at the front desk explained that the incidence happpened because of some kind of miscommunication between them, She told that that lady was staying the night before me and she came back trying to get back in the room but could not remember which room she was in, and the laundry lady mistakenly gave her my key room. She tried to say...More</t>
   </si>
   <si>
+    <t>Kenmitche9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r164326469-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2343,6 +2613,9 @@
     <t>This was a value for the price of $52/night. All the vending machines were broken and taking money. Lots of large beetles on the lower level, so Id suggest getting a 2nd level room if you don't like large black bugs. No Kleenex or room amenities (shampoo, lotion, shower cap) are provided. According to the ad in the bathroom; if you are not staying more than 7 days; light room service is provided for a cost. I have never stayed at a hotel that does not check your at least every other day. My stay was for 4 days but I checked out after night two.More</t>
   </si>
   <si>
+    <t>Southerneyez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r160984677-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2367,6 +2640,9 @@
     <t>Once again the human errors hurts this rating not the grounds or rooms the cleaning after guests leave not a good job. I called ahead 2 hours they said let me have housekeeping make sure your room is ready and WOW her perception of clean blew me away. More</t>
   </si>
   <si>
+    <t>360KevinH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r156406188-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2392,6 +2668,9 @@
   </si>
   <si>
     <t>Their accommodation is the greatest, I will recommend them to all that are looking for a place to stay while they are in the Dallas area. Extended Stay Of America, it's location is convent to all sort of travel plane, train, and automobile.More</t>
+  </si>
+  <si>
+    <t>fang0026</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r156380274-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
@@ -2413,6 +2692,9 @@
 I asked to speak to the manager but he wasn't in. I left a message for him to call me. I specifically left my cell phone number because I knew the number they had on file was my home number. I waited all...The first red flag was the roach bait/ traps in the closet. But, I didn't see any live ones so, I just assumed it was just for preventative. I stayed here for 11 nights. The first 4 days, I didn't see any roaches. On the fifth day one ran across the kitchen floor. I nearly had a heart attack! It was a big one! Maybe 1"-1.5" inches long. I killed it and didn't see any for a couple days. So, I thought it was a fluke. I'm not a big complainer so, I didn't say anything to the front desk.  A few days later, I saw one in the bathroom running on top of the sink. I tried to hit it with my shoe but it went down the sink drain. So I ran the water for a few minutes. After that I check the rest of the room. Upon further inspection I noticed more roach bait/ traps. The one in closet I mention earlier and two under the bathroom sink. I also found a couple dead roaches in the kitchen cabinets. I felt this is now reason for concern. So, I talked to the front desk. I asked to speak to the manager but he wasn't in. I left a message for him to call me. I specifically left my cell phone number because I knew the number they had on file was my home number. I waited all day. I never got a call. The next day I went down to the front desk again. I spoke to the same lady. I told her nobody called me. She asked me what the issue was, but there was another customer in the lobby. I didn't want to alarm them so I wrote it down on a comment card. Later that day the lady at the front desk, which I spoke to, called me and said she will have maintenance spray the room and she will comp me for my remaining two nights. I asked her if she could do more. We finally agreed on three nights. Upon check out, the manager was finally in. I spoke to him and told him the issue. He said he just read my comment card and was aware of my issue. He asked me if the clerk offered to change my room but she didn't. Besides the roach problem, this is a below average hotel. The room I stayed in was not very clean. There was dirt on the floors and carpet. Even when the room was cleaned, it’s not cleaned well. It still was not vacuumed and the floors were not swept. Which it stated it would be for the number of nights that I stayed. There were stains on the carpet as well. I kept my shoes on the entire time. I will never stay in this hotel again. Not only poor quality of my room but bad management.More</t>
   </si>
   <si>
+    <t>husna22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r152854420-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2437,6 +2719,9 @@
     <t>My family and I stayed here for the majority of this month waiting to close on our home. The hotel receptionists Isamar and Kelly were great. They both provided excellent services. Made our stayed great. Very friendly. every morning for breakfast we would always have good conversations. The only thing I would like to see Change are the tv channel selections maybe Bravotv for me lol and Nickjr for my 4yr old but that's not a biggy we made it through with Netflix. I say great place and friendly workers. Hotel worth it for the price. Definitely will stay again if we need too. More</t>
   </si>
   <si>
+    <t>Jwilaqua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r152343525-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2461,6 +2746,9 @@
     <t>The name if the facility has changed so the name advertised in which you book from is completely different so finding this location was very difficult because nobody bothered to tell us that. Then we reserved a queen studio non smoking and were put in a double bed smoking complete with an ash tray it smelled terrible!!!! When I tried to call front desk nobody picked up. When I went to the front desk the doors were locked. I then had to sit in my car call the hotels number and wait 5 mins to speak to someone who by the way was there to do laundry she was having to help me bc no actual front desk employee or manager was even there. She then finally unlocked the door to then attempt to put us in a different room. She gave me the keys I told her I'd be right back to let her know if it was ok and said dont lock the door. When we got to the room the keys did not work and when I went back to the front desk it was locked again!!!!!!! Grrrrr worst service I have EVER had. I have paid half the price and had 10x better service before low cost shouldn't mean you get an experience like this. I was forced to leave with no way to get into a room after traveling all day and being exhausted. DO...The name if the facility has changed so the name advertised in which you book from is completely different so finding this location was very difficult because nobody bothered to tell us that. Then we reserved a queen studio non smoking and were put in a double bed smoking complete with an ash tray it smelled terrible!!!! When I tried to call front desk nobody picked up. When I went to the front desk the doors were locked. I then had to sit in my car call the hotels number and wait 5 mins to speak to someone who by the way was there to do laundry she was having to help me bc no actual front desk employee or manager was even there. She then finally unlocked the door to then attempt to put us in a different room. She gave me the keys I told her I'd be right back to let her know if it was ok and said dont lock the door. When we got to the room the keys did not work and when I went back to the front desk it was locked again!!!!!!! Grrrrr worst service I have EVER had. I have paid half the price and had 10x better service before low cost shouldn't mean you get an experience like this. I was forced to leave with no way to get into a room after traveling all day and being exhausted. DO NOT STAY HERE!!!!  More</t>
   </si>
   <si>
+    <t>Rena H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r149385961-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2488,6 +2776,9 @@
     <t>I really enjoyed my stay here. I was only here for a day but the front desk ladies were very sweet and made me and my family feel right at home. The manager was very professsional and friendly. The rooms were nice and clean and even came with a few dishes to cook with which was neat. I will definately recommend this hotel to others, and will rent a room here before going anywhere else! Great experience.More</t>
   </si>
   <si>
+    <t>Samster1975</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r147878790-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2512,6 +2803,9 @@
     <t>I have been here for a few months and have enjoyed the service and friendly staff at this Arlington location. The staff have made the stay very pleasant with their good service. Ask for Raj and Kelly since they have been very courteous and helpful. More</t>
   </si>
   <si>
+    <t>Latonya S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r145336209-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2536,6 +2830,9 @@
     <t>I enjoy my stay, the staff here are very friendly and couteous. Just need to add more channels, other than that perfect. I would recommend my friends anid family to stay here. It is also located in a very convenientMore</t>
   </si>
   <si>
+    <t>IAscar30183</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r145094962-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2563,6 +2860,9 @@
     <t>Having relocated from CA, I moved in Homestead Studio Arlington with a plan to stay two weeks. Just enough time to find an apartment on rent. It is now over a year and I completely gave up my plan to move into a rental apartment.Homestead Arlington staff is professional, extremely customer centric, always available to assist with a smile. The front desk CSR's are delightful, room cleaning is regularly done so no matter how I calculate my finances, with electric, gas, tv, etc paid, Homestead makes sense.I would recommend the Arlington Homestead to everyone travelling.More</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r144956344-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2590,6 +2890,9 @@
     <t>My wife and I are so blessed to have found Homestead Hotel in Arlington, Texas. We have lived here for almost 4 years and we love it so much that we call it our home. The manager and all the people that work here are so very nice. Homestead Arlington is such a peaceful place to stay for one night or to live long term. We have no desire to live anywhere else. Absolutely no crime.Their prices are really good. You just can't go wrong with Homestead Arlington. DavidMore</t>
   </si>
   <si>
+    <t>preslb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r141827776-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2614,6 +2917,9 @@
     <t>The room are very small and not very clean. The front desk staff was friendly but the hotel seemed under staffed. The hotel policy states the the room will only be cleaned once a week. Guests in need of new towels must exchange the old ones themselves at the front desk. We tried this and where told on two occasions that all the towels where being washed. This was not very helpful when you need to shower in the morning. The location is great but for just a little more you can stay at a better place. I will not be back. More</t>
   </si>
   <si>
+    <t>Julianathursday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r141544624-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2638,6 +2944,9 @@
     <t>Bring your own shampoo and conditioner because they don't offer it. Also no hair dryer so bring that as well. Also if you plan on having sex you might want to get two beds one for sex one to sleep in bc they do not offer clean linen service until the 7th day. You also have to get your own towels from the front desk. The water pressure also sucks. Enjoy your stayMore</t>
   </si>
   <si>
+    <t>Amy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r134673437-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2665,6 +2974,9 @@
     <t>I picked this hotel because of it was "newly renovated". Though it did have a new flat screen tv and and updated bar/dining table. It just felt dirty. There were stains on the carpets and the comforter looked like it had not been washed since the remodel. The bed was super uncomfortable, I was waking up sore and I have no back problems, etc. My first night there the fridge started to leak, went to the office to get maintenance. The man on duty said he would put in a report for maintenance for following day... 2 full days later they still had not come. In the meantime, the toilet quit flushing and what really put me over the top was the crickets... in my room. Ewww :( So, I checked out and went to another extended stay hotel less that 1 mile away. Also, when I booked in advance I specified non-smoking room. When I walked in to my first assigned room I was almost knocked over by the smoke. I immediately requested a change. Though they did accommodate there was still smoke that drifted into my room from nearby smoking despite the "non-smoking" building. Parking is also a small issue for 20+ rooms on each side there are maybe 10 parking spots, forcing you to park off to the side. Parking lot is not very well lit.More</t>
   </si>
   <si>
+    <t>aboulbill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r134119544-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2689,6 +3001,9 @@
     <t>For a long duration and confortable stay, it would be a great idea to stay here. It's located near the Expressway between Dallas and Fort Worth, so the location is very good. The rooms are clean and renovated. It contains everything I needed. The customer service are so kind. I would recommend this hotel because of its price, the quality of the room and the value of the stay.More</t>
   </si>
   <si>
+    <t>FourFiftyFour</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r132128750-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2716,6 +3031,9 @@
     <t>This is the WORST hotel I have ever been to! I too, would give it no stars if I could as well! I reserved a room a month in advance, I specified that I would need one of the softer beds as I have injured my back before. I get to the hotel, my door does not want to open and it must be wiggled and slammed into before opening. My bed was hard as a rock. The fridge would not work, and I stayed up until 2 am trying to fix it. They told me to tough it out because they could not put me in a different room until the next day. A violent fight broke out that night and cops, firetrucks, and ambulances had shown up due to the injuries one had inflicted on another. The next morning, the TV quit working. I finally got to move to a different room that was on the other side of the building, so I had to have the hassle of moving again. Not once did the hotel apologize over it. Oh yeah, the laundromat..it does not work! A lady slashed another lady's tires there within the next week. I could not stay any longer than a week there. It was such a bad experience and so unsafe that I could not bear to stay another night there. When I checked out, I requested that my name be spelled right-...This is the WORST hotel I have ever been to! I too, would give it no stars if I could as well! I reserved a room a month in advance, I specified that I would need one of the softer beds as I have injured my back before. I get to the hotel, my door does not want to open and it must be wiggled and slammed into before opening. My bed was hard as a rock. The fridge would not work, and I stayed up until 2 am trying to fix it. They told me to tough it out because they could not put me in a different room until the next day. A violent fight broke out that night and cops, firetrucks, and ambulances had shown up due to the injuries one had inflicted on another. The next morning, the TV quit working. I finally got to move to a different room that was on the other side of the building, so I had to have the hassle of moving again. Not once did the hotel apologize over it. Oh yeah, the laundromat..it does not work! A lady slashed another lady's tires there within the next week. I could not stay any longer than a week there. It was such a bad experience and so unsafe that I could not bear to stay another night there. When I checked out, I requested that my name be spelled right- it was spelled TOTALLY wrong and since I had a refund coming in my name in form of a check it must be spelled right. The supervisor laughed at me and was really rude about it. My check finally comes a week later with my refund and my name was STILL spelled wrong!!!!!!!!!!!! I am going to have to wait another week for my refund because of that supervisor's attitude and doing that to spite me! I have been outraged at the treatment I have received. STAY AWAY FROM THIS PLACE....GOD AWFUL!!!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>kateann0621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r131053681-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2737,6 +3055,9 @@
     <t>My husbandand  I and our 4 year old son stayed here for our Texas trip.  The location is perfect (between Dallas and Fort Worth) and right off the Expressway.  It was located next to cracker barrel so it's really convenience for us.  We had a rental and parking was not a problem at all.  THe room was a smaller than I expected (being that it was a suite), but it was super clean, and updated.   Everything we needed were already there, plates, cups, everything you can think of.  We had the end room and it was clean and easily accessible.   It did have a laundry room which really helped but the laundry room was pretty worn down and dirty.   But then again, who does laundry on vacation right?  Well we had some wet clothes that I wanted washed and dried just so they don't stink up the luggage so it was reasonable enough.  Besides checking in and out, I didnt have too much interaction with the staff but so far they were friendly.   The office closes at night so I thought that was wierd but security walks around so I feel safe smoking outside at night heehe.I would recommend this hotel.  For the prie they charge, you definitely get the best value for your money.More</t>
   </si>
   <si>
+    <t>A A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r129478066-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2758,6 +3079,9 @@
     <t>This is the worst hotel I have ever been to! I would give this NO stars if I had the option. Do not let the whole "newly renovated" thing they claim fool you. First off, the room smelled like damp urine that apparently came from the AC/heater. Then I noticed a leak from underneath the sink and on the floor, which my 1 yr old son almost slipped into, thank God he didn't get hurt. Also the room was not properly cleaned. I saw chips, beer cap, empty air freshers for smoking (the room was suppose to be non-smoking), and other trash under the bed. This would not have bothered me if I didnt have a child that picks up everything he sees and puts in his mouth! I reported all this to the lady at the office and she gave me another room. I was happy about the room change, but when I checked it out, I was terrified. I saw dead small roaches on the floors of the kitchen, bathroom and near the bed. And a few live ones crawling on the AC/heater unit! Also noticed a puddle of water on the kitchen floor that came from the fridge! This was unacceptable. I would have gone to better hotel but I already paid for my 3 day stay here. So once again, I went back to the front desk to request another available room I and my kids...This is the worst hotel I have ever been to! I would give this NO stars if I had the option. Do not let the whole "newly renovated" thing they claim fool you. First off, the room smelled like damp urine that apparently came from the AC/heater. Then I noticed a leak from underneath the sink and on the floor, which my 1 yr old son almost slipped into, thank God he didn't get hurt. Also the room was not properly cleaned. I saw chips, beer cap, empty air freshers for smoking (the room was suppose to be non-smoking), and other trash under the bed. This would not have bothered me if I didnt have a child that picks up everything he sees and puts in his mouth! I reported all this to the lady at the office and she gave me another room. I was happy about the room change, but when I checked it out, I was terrified. I saw dead small roaches on the floors of the kitchen, bathroom and near the bed. And a few live ones crawling on the AC/heater unit! Also noticed a puddle of water on the kitchen floor that came from the fridge! This was unacceptable. I would have gone to better hotel but I already paid for my 3 day stay here. So once again, I went back to the front desk to request another available room I and my kids can stay in, but to my surprise the door to the office was locked. How can no one be in the office at 11am, this is ridiculous! So I had to wait in the roach infested room for about 30 minutes before I was able to talk to someone in the office. I complained about this room and the lady at the office didn't apologize or show any sympathy whatsoever. I also demanded to speak to a manager regarding my horrific experience with the rooms. They did call the manager, but I the manager never came. There were no other rooms available to give me, as I was told. So I had to go back to the first room I stayed in that smelled like damp urine. Need I say more......during my whole stay there, housekeeping didn't even come to clean the room. I am NEVER staying in this hotel again. The customer service here is very very poor.  I have been to several extended stay hotels and this is by far the worst!!!More</t>
   </si>
   <si>
+    <t>Brett B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r129316852-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2779,6 +3103,9 @@
     <t>The hotel has apparently made upgrades.  Everything was new, clean and very nice.  No foul smells.  Great staff and vigilant security.  Very happy with the value of price versus what was received.More</t>
   </si>
   <si>
+    <t>reese1379</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r126272491-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2806,6 +3133,9 @@
     <t>We stayed here mid March 2012.  Let me start out by saying that I would recommend this place for a short stay, but for a long stay I wouldn't because the rooms are very small.  Although they were pretty much clean.  They have security at night and the guy was very nice.  The place is updated in and out to some degree but it does look nice compared to other extended stays around here.  I would stay here again but there are some other cons about it that I think management could improve on.  Pillows were completely flat and uncomfortable.  There is no hair dryer.  The shower head was horrible.  The soda machine was out of order for days.  The garbage can outside was never taken out.  The first 2 nights the internet was not working in our room.  We kept calling and got excuse after excuse.  Then there was a point where we couldn't even reach the front desk because our phone wasn't working.  Finally, the 3rd night I went to the front desk because I had enough due to the fact I was here on business and could not use the internet, especially when they advertise "free internet".  So after the excuses we got from the first girl that ran the desk, there was a new one there who actually fixed it.  All she did was go into another room and reset the access point box/router.  You would...We stayed here mid March 2012.  Let me start out by saying that I would recommend this place for a short stay, but for a long stay I wouldn't because the rooms are very small.  Although they were pretty much clean.  They have security at night and the guy was very nice.  The place is updated in and out to some degree but it does look nice compared to other extended stays around here.  I would stay here again but there are some other cons about it that I think management could improve on.  Pillows were completely flat and uncomfortable.  There is no hair dryer.  The shower head was horrible.  The soda machine was out of order for days.  The garbage can outside was never taken out.  The first 2 nights the internet was not working in our room.  We kept calling and got excuse after excuse.  Then there was a point where we couldn't even reach the front desk because our phone wasn't working.  Finally, the 3rd night I went to the front desk because I had enough due to the fact I was here on business and could not use the internet, especially when they advertise "free internet".  So after the excuses we got from the first girl that ran the desk, there was a new one there who actually fixed it.  All she did was go into another room and reset the access point box/router.  You would think the first girl that was there when we checked in knew how to do this, but instead she kept claiming she had to contact their IT guy.  Other then that, the place is not a 5 star, but it's a decent place to stay for a short term stay.More</t>
   </si>
   <si>
+    <t>Jaatmaster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r125711563-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2822,6 +3152,9 @@
   </si>
   <si>
     <t>June 2011</t>
+  </si>
+  <si>
+    <t>amymm2006</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d217720-r124270307-Extended_Stay_America_Arlington-Arlington_Texas.html</t>
@@ -3341,43 +3674,47 @@
       <c r="A2" t="n">
         <v>31357</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3389,56 +3726,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31357</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>40193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -3460,56 +3801,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31357</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>135951</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3521,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31357</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>135952</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -3592,56 +3941,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31357</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>135953</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3657,56 +4010,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31357</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>135954</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3728,56 +4085,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31357</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>113774</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3799,56 +4160,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31357</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>135955</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3860,56 +4225,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31357</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>135956</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3921,56 +4290,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31357</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>135957</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3982,47 +4355,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31357</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>135958</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
@@ -4039,56 +4416,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31357</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>135959</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -4104,56 +4485,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31357</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>135960</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4165,56 +4550,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31357</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>135961</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -4236,56 +4625,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31357</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>10251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4297,56 +4690,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31357</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>888</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4364,56 +4761,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31357</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>135962</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>189</v>
       </c>
-      <c r="L18" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>174</v>
-      </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -4433,56 +4834,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31357</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>30985</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -4504,56 +4909,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31357</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>135963</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4575,56 +4984,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31357</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>135964</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -4646,56 +5059,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31357</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>135965</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4717,56 +5134,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31357</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>135966</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -4788,56 +5209,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31357</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>135967</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4853,56 +5278,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31357</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>135968</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -4920,56 +5349,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31357</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>135969</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4981,56 +5414,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="Y26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31357</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>7678</v>
+      </c>
+      <c r="C27" t="s">
+        <v>286</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K27" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s">
+        <v>291</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>264</v>
       </c>
-      <c r="L27" t="s">
-        <v>265</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>241</v>
-      </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -5042,56 +5479,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31357</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>135970</v>
+      </c>
+      <c r="C28" t="s">
+        <v>295</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -5109,56 +5550,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="X28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31357</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>135971</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -5170,56 +5615,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31357</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>135972</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5231,56 +5680,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31357</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>135973</v>
+      </c>
+      <c r="C31" t="s">
+        <v>318</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5292,56 +5745,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31357</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>135974</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5353,56 +5810,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31357</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>135975</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -5420,56 +5881,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31357</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>135976</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="K34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5487,56 +5952,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31357</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>135977</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5548,56 +6017,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31357</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>135978</v>
+      </c>
+      <c r="C36" t="s">
+        <v>363</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5615,56 +6088,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31357</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>135979</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5682,56 +6159,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="X37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31357</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>14734</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5747,56 +6228,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="X38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31357</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>135980</v>
+      </c>
+      <c r="C39" t="s">
+        <v>390</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5808,56 +6293,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31357</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>135981</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5875,56 +6364,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="X40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Y40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31357</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>135982</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5942,56 +6435,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="X41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31357</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>135983</v>
+      </c>
+      <c r="C42" t="s">
+        <v>419</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -6007,56 +6504,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="X42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="Y42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31357</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>135984</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -6074,56 +6575,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="Y43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31357</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>8113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>437</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="J44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="K44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="L44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -6135,56 +6640,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="X44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="Y44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31357</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>135985</v>
+      </c>
+      <c r="C45" t="s">
+        <v>446</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="K45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6202,56 +6711,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="X45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="Y45" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31357</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>135986</v>
+      </c>
+      <c r="C46" t="s">
+        <v>456</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="J46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="K46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="L46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -6269,56 +6782,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="X46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="Y46" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31357</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>135987</v>
+      </c>
+      <c r="C47" t="s">
+        <v>466</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="K47" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6330,56 +6847,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="X47" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="Y47" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31357</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>135988</v>
+      </c>
+      <c r="C48" t="s">
+        <v>475</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="J48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -6397,56 +6918,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="X48" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="Y48" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31357</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>135989</v>
+      </c>
+      <c r="C49" t="s">
+        <v>484</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="J49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="K49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="L49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6462,56 +6987,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="X49" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="Y49" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31357</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>135990</v>
+      </c>
+      <c r="C50" t="s">
+        <v>494</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="J50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6529,56 +7058,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="X50" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="Y50" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31357</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>7214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>503</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="J51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="K51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="L51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6598,50 +7131,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>31357</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>135991</v>
+      </c>
+      <c r="C52" t="s">
+        <v>510</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="J52" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="K52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="L52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6657,56 +7194,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="X52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="Y52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>31357</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>135992</v>
+      </c>
+      <c r="C53" t="s">
+        <v>520</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="J53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="K53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="L53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6720,50 +7261,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>31357</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>135993</v>
+      </c>
+      <c r="C54" t="s">
+        <v>526</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="J54" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="K54" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="L54" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6779,56 +7324,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="X54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="Y54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>31357</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>135994</v>
+      </c>
+      <c r="C55" t="s">
+        <v>536</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="J55" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="K55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="L55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6840,56 +7389,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="X55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="Y55" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>31357</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>78865</v>
+      </c>
+      <c r="C56" t="s">
+        <v>545</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="J56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="K56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="L56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6901,56 +7454,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="X56" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Y56" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>31357</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>135995</v>
+      </c>
+      <c r="C57" t="s">
+        <v>555</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="J57" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="K57" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="L57" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="O57" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6968,56 +7525,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="X57" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="Y57" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>31357</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>135996</v>
+      </c>
+      <c r="C58" t="s">
+        <v>565</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="J58" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="K58" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="L58" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="O58" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -7035,56 +7596,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="X58" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="Y58" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>31357</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>135997</v>
+      </c>
+      <c r="C59" t="s">
+        <v>575</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="J59" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="K59" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="L59" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="O59" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -7096,56 +7661,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="X59" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="Y59" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>31357</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>5669</v>
+      </c>
+      <c r="C60" t="s">
+        <v>585</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="J60" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="K60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="L60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="O60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -7161,56 +7730,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="X60" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="Y60" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>31357</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>111912</v>
+      </c>
+      <c r="C61" t="s">
+        <v>595</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="J61" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="K61" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="L61" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="O61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -7226,47 +7799,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="X61" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="Y61" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>31357</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>135998</v>
+      </c>
+      <c r="C62" t="s">
+        <v>605</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="J62" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="K62" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="L62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -7295,50 +7872,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>31357</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>135999</v>
+      </c>
+      <c r="C63" t="s">
+        <v>611</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="J63" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="K63" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="L63" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7350,56 +7931,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="X63" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="Y63" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>31357</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>58952</v>
+      </c>
+      <c r="C64" t="s">
+        <v>621</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="J64" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="K64" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="L64" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="O64" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -7417,56 +8002,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="X64" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="Y64" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>31357</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>630</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="J65" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="K65" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="L65" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="O65" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7482,56 +8071,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="X65" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="Y65" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>31357</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>35353</v>
+      </c>
+      <c r="C66" t="s">
+        <v>637</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="J66" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="K66" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="L66" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7543,56 +8136,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="X66" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="Y66" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>31357</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>136001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>647</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="J67" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="K67" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="L67" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="O67" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7610,50 +8207,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>31357</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136002</v>
+      </c>
+      <c r="C68" t="s">
+        <v>654</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="J68" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="K68" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="L68" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="O68" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7665,47 +8266,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="X68" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="Y68" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>31357</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>136003</v>
+      </c>
+      <c r="C69" t="s">
+        <v>663</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="J69" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="K69" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="L69" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -7732,56 +8337,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="X69" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="Y69" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>31357</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>111481</v>
+      </c>
+      <c r="C70" t="s">
+        <v>672</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="J70" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="K70" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="L70" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="O70" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7799,56 +8408,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="X70" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="Y70" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>31357</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>136004</v>
+      </c>
+      <c r="C71" t="s">
+        <v>682</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="J71" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="K71" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="L71" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="n">
@@ -7868,50 +8481,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>31357</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>52056</v>
+      </c>
+      <c r="C72" t="s">
+        <v>689</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="J72" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="K72" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="L72" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="O72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7929,56 +8546,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="X72" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="Y72" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>31357</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136005</v>
+      </c>
+      <c r="C73" t="s">
+        <v>699</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="J73" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="K73" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="L73" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="O73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7990,47 +8611,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="X73" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="Y73" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>31357</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136006</v>
+      </c>
+      <c r="C74" t="s">
+        <v>708</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="J74" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="K74" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="L74" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
@@ -8057,56 +8682,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="X74" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
       <c r="Y74" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>31357</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136007</v>
+      </c>
+      <c r="C75" t="s">
+        <v>717</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="J75" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="K75" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="L75" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -8130,50 +8759,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>31357</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>136008</v>
+      </c>
+      <c r="C76" t="s">
+        <v>724</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="J76" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="K76" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="L76" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="O76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -8197,50 +8830,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>31357</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136009</v>
+      </c>
+      <c r="C77" t="s">
+        <v>732</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="J77" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="K77" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="L77" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="O77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8262,56 +8899,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="X77" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="Y77" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>31357</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>18276</v>
+      </c>
+      <c r="C78" t="s">
+        <v>742</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="J78" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="K78" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="L78" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="O78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -8335,50 +8976,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>31357</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>136010</v>
+      </c>
+      <c r="C79" t="s">
+        <v>749</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="J79" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
       <c r="K79" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="L79" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="O79" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -8390,56 +9035,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="X79" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="Y79" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>31357</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>136011</v>
+      </c>
+      <c r="C80" t="s">
+        <v>759</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="J80" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="K80" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="L80" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="O80" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -8453,50 +9102,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>31357</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>136012</v>
+      </c>
+      <c r="C81" t="s">
+        <v>766</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
       <c r="J81" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="K81" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="L81" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="O81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8510,41 +9163,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>31357</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136013</v>
+      </c>
+      <c r="C82" t="s">
+        <v>773</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
       <c r="J82" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
       <c r="K82" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="L82" t="s">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
@@ -8573,41 +9230,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>31357</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>136014</v>
+      </c>
+      <c r="C83" t="s">
+        <v>780</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="J83" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="K83" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
       <c r="L83" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
@@ -8634,56 +9295,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="X83" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="Y83" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>31357</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C84" t="s">
+        <v>789</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
       <c r="J84" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="K84" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="L84" t="s">
-        <v>711</v>
+        <v>794</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>712</v>
+        <v>795</v>
       </c>
       <c r="O84" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8705,56 +9370,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="X84" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="Y84" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>31357</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>136015</v>
+      </c>
+      <c r="C85" t="s">
+        <v>799</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>717</v>
+        <v>801</v>
       </c>
       <c r="J85" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
       <c r="K85" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="L85" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="O85" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8778,50 +9447,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>31357</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>136016</v>
+      </c>
+      <c r="C86" t="s">
+        <v>807</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>723</v>
+        <v>808</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>724</v>
+        <v>809</v>
       </c>
       <c r="J86" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="K86" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="L86" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="O86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8843,56 +9516,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
       <c r="X86" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="Y86" t="s">
-        <v>730</v>
+        <v>815</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>31357</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>136017</v>
+      </c>
+      <c r="C87" t="s">
+        <v>816</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>731</v>
+        <v>817</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>732</v>
+        <v>818</v>
       </c>
       <c r="J87" t="s">
-        <v>733</v>
+        <v>819</v>
       </c>
       <c r="K87" t="s">
-        <v>734</v>
+        <v>820</v>
       </c>
       <c r="L87" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="O87" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8914,47 +9591,51 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
       <c r="X87" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="Y87" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>31357</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>136018</v>
+      </c>
+      <c r="C88" t="s">
+        <v>824</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>738</v>
+        <v>825</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>739</v>
+        <v>826</v>
       </c>
       <c r="J88" t="s">
-        <v>740</v>
+        <v>827</v>
       </c>
       <c r="K88" t="s">
-        <v>741</v>
+        <v>828</v>
       </c>
       <c r="L88" t="s">
-        <v>742</v>
+        <v>829</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
@@ -8981,47 +9662,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>743</v>
+        <v>830</v>
       </c>
       <c r="X88" t="s">
-        <v>744</v>
+        <v>831</v>
       </c>
       <c r="Y88" t="s">
-        <v>745</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>31357</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>136019</v>
+      </c>
+      <c r="C89" t="s">
+        <v>833</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>746</v>
+        <v>834</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>747</v>
+        <v>835</v>
       </c>
       <c r="J89" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="K89" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="L89" t="s">
-        <v>750</v>
+        <v>838</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
@@ -9048,47 +9733,51 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>751</v>
+        <v>839</v>
       </c>
       <c r="X89" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
       <c r="Y89" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>31357</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>136020</v>
+      </c>
+      <c r="C90" t="s">
+        <v>842</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>755</v>
+        <v>844</v>
       </c>
       <c r="J90" t="s">
-        <v>756</v>
+        <v>845</v>
       </c>
       <c r="K90" t="s">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="L90" t="s">
-        <v>758</v>
+        <v>847</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
@@ -9117,50 +9806,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>31357</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>136021</v>
+      </c>
+      <c r="C91" t="s">
+        <v>849</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="J91" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="K91" t="s">
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="L91" t="s">
-        <v>764</v>
+        <v>854</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="O91" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -9182,47 +9875,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="X91" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="Y91" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>31357</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>136022</v>
+      </c>
+      <c r="C92" t="s">
+        <v>859</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>770</v>
+        <v>861</v>
       </c>
       <c r="J92" t="s">
-        <v>771</v>
+        <v>862</v>
       </c>
       <c r="K92" t="s">
-        <v>772</v>
+        <v>863</v>
       </c>
       <c r="L92" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
@@ -9249,56 +9946,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="X92" t="s">
-        <v>775</v>
+        <v>866</v>
       </c>
       <c r="Y92" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>31357</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>136023</v>
+      </c>
+      <c r="C93" t="s">
+        <v>868</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>777</v>
+        <v>869</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>778</v>
+        <v>870</v>
       </c>
       <c r="J93" t="s">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="K93" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="L93" t="s">
-        <v>781</v>
+        <v>873</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>782</v>
+        <v>874</v>
       </c>
       <c r="O93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9320,56 +10021,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="X93" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="Y93" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>31357</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>136024</v>
+      </c>
+      <c r="C94" t="s">
+        <v>878</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>786</v>
+        <v>879</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>787</v>
+        <v>880</v>
       </c>
       <c r="J94" t="s">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="K94" t="s">
-        <v>788</v>
+        <v>881</v>
       </c>
       <c r="L94" t="s">
-        <v>789</v>
+        <v>882</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>712</v>
+        <v>795</v>
       </c>
       <c r="O94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -9391,47 +10096,51 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="X94" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="Y94" t="s">
-        <v>790</v>
+        <v>883</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>31357</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>136025</v>
+      </c>
+      <c r="C95" t="s">
+        <v>884</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>792</v>
+        <v>886</v>
       </c>
       <c r="J95" t="s">
-        <v>793</v>
+        <v>887</v>
       </c>
       <c r="K95" t="s">
-        <v>794</v>
+        <v>888</v>
       </c>
       <c r="L95" t="s">
-        <v>795</v>
+        <v>889</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
@@ -9458,47 +10167,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>796</v>
+        <v>890</v>
       </c>
       <c r="X95" t="s">
-        <v>797</v>
+        <v>891</v>
       </c>
       <c r="Y95" t="s">
-        <v>798</v>
+        <v>892</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>31357</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C96" t="s">
+        <v>893</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>800</v>
+        <v>895</v>
       </c>
       <c r="J96" t="s">
-        <v>801</v>
+        <v>896</v>
       </c>
       <c r="K96" t="s">
-        <v>802</v>
+        <v>897</v>
       </c>
       <c r="L96" t="s">
-        <v>803</v>
+        <v>898</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
@@ -9525,56 +10238,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="X96" t="s">
-        <v>805</v>
+        <v>900</v>
       </c>
       <c r="Y96" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>31357</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>136027</v>
+      </c>
+      <c r="C97" t="s">
+        <v>902</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>807</v>
+        <v>903</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>808</v>
+        <v>904</v>
       </c>
       <c r="J97" t="s">
-        <v>809</v>
+        <v>905</v>
       </c>
       <c r="K97" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
       <c r="L97" t="s">
-        <v>811</v>
+        <v>907</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>812</v>
+        <v>908</v>
       </c>
       <c r="O97" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9596,47 +10313,51 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="X97" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="Y97" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>31357</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>136028</v>
+      </c>
+      <c r="C98" t="s">
+        <v>912</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>816</v>
+        <v>913</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>817</v>
+        <v>914</v>
       </c>
       <c r="J98" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="K98" t="s">
-        <v>819</v>
+        <v>916</v>
       </c>
       <c r="L98" t="s">
-        <v>820</v>
+        <v>917</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
@@ -9663,47 +10384,51 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>821</v>
+        <v>918</v>
       </c>
       <c r="X98" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="Y98" t="s">
-        <v>823</v>
+        <v>920</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>31357</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>136029</v>
+      </c>
+      <c r="C99" t="s">
+        <v>921</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>824</v>
+        <v>922</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>825</v>
+        <v>923</v>
       </c>
       <c r="J99" t="s">
-        <v>826</v>
+        <v>924</v>
       </c>
       <c r="K99" t="s">
-        <v>827</v>
+        <v>925</v>
       </c>
       <c r="L99" t="s">
-        <v>828</v>
+        <v>926</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
@@ -9730,56 +10455,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>829</v>
+        <v>927</v>
       </c>
       <c r="X99" t="s">
-        <v>830</v>
+        <v>928</v>
       </c>
       <c r="Y99" t="s">
-        <v>831</v>
+        <v>929</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>31357</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>136030</v>
+      </c>
+      <c r="C100" t="s">
+        <v>930</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>832</v>
+        <v>931</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>833</v>
+        <v>932</v>
       </c>
       <c r="J100" t="s">
-        <v>834</v>
+        <v>933</v>
       </c>
       <c r="K100" t="s">
-        <v>835</v>
+        <v>934</v>
       </c>
       <c r="L100" t="s">
-        <v>836</v>
+        <v>935</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>837</v>
+        <v>936</v>
       </c>
       <c r="O100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9801,56 +10530,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="X100" t="s">
-        <v>839</v>
+        <v>938</v>
       </c>
       <c r="Y100" t="s">
-        <v>840</v>
+        <v>939</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>31357</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C101" t="s">
+        <v>940</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>841</v>
+        <v>941</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>842</v>
+        <v>942</v>
       </c>
       <c r="J101" t="s">
-        <v>843</v>
+        <v>943</v>
       </c>
       <c r="K101" t="s">
-        <v>844</v>
+        <v>944</v>
       </c>
       <c r="L101" t="s">
-        <v>845</v>
+        <v>945</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>846</v>
+        <v>946</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9872,47 +10605,51 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>847</v>
+        <v>947</v>
       </c>
       <c r="X101" t="s">
-        <v>848</v>
+        <v>948</v>
       </c>
       <c r="Y101" t="s">
-        <v>849</v>
+        <v>949</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>31357</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>47645</v>
+      </c>
+      <c r="C102" t="s">
+        <v>950</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>850</v>
+        <v>951</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>851</v>
+        <v>952</v>
       </c>
       <c r="J102" t="s">
-        <v>852</v>
+        <v>953</v>
       </c>
       <c r="K102" t="s">
-        <v>853</v>
+        <v>954</v>
       </c>
       <c r="L102" t="s">
-        <v>854</v>
+        <v>955</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
@@ -9939,47 +10676,51 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>855</v>
+        <v>956</v>
       </c>
       <c r="X102" t="s">
-        <v>856</v>
+        <v>957</v>
       </c>
       <c r="Y102" t="s">
-        <v>857</v>
+        <v>958</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>31357</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>136031</v>
+      </c>
+      <c r="C103" t="s">
+        <v>959</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>858</v>
+        <v>960</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>859</v>
+        <v>961</v>
       </c>
       <c r="J103" t="s">
-        <v>860</v>
+        <v>962</v>
       </c>
       <c r="K103" t="s">
-        <v>861</v>
+        <v>963</v>
       </c>
       <c r="L103" t="s">
-        <v>862</v>
+        <v>964</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
@@ -10006,56 +10747,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>863</v>
+        <v>965</v>
       </c>
       <c r="X103" t="s">
-        <v>864</v>
+        <v>966</v>
       </c>
       <c r="Y103" t="s">
-        <v>865</v>
+        <v>967</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>31357</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>95</v>
+      </c>
+      <c r="C104" t="s">
+        <v>968</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>866</v>
+        <v>969</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>867</v>
+        <v>970</v>
       </c>
       <c r="J104" t="s">
-        <v>868</v>
+        <v>971</v>
       </c>
       <c r="K104" t="s">
-        <v>869</v>
+        <v>972</v>
       </c>
       <c r="L104" t="s">
-        <v>870</v>
+        <v>973</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>871</v>
+        <v>974</v>
       </c>
       <c r="O104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P104" t="n">
         <v>1</v>
@@ -10077,56 +10822,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>872</v>
+        <v>975</v>
       </c>
       <c r="X104" t="s">
-        <v>873</v>
+        <v>976</v>
       </c>
       <c r="Y104" t="s">
-        <v>874</v>
+        <v>977</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>31357</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>136032</v>
+      </c>
+      <c r="C105" t="s">
+        <v>978</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>875</v>
+        <v>979</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>876</v>
+        <v>980</v>
       </c>
       <c r="J105" t="s">
-        <v>877</v>
+        <v>981</v>
       </c>
       <c r="K105" t="s">
-        <v>878</v>
+        <v>982</v>
       </c>
       <c r="L105" t="s">
-        <v>879</v>
+        <v>983</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>871</v>
+        <v>974</v>
       </c>
       <c r="O105" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s"/>
@@ -10138,56 +10887,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="X105" t="s">
-        <v>881</v>
+        <v>985</v>
       </c>
       <c r="Y105" t="s">
-        <v>882</v>
+        <v>986</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>31357</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>136033</v>
+      </c>
+      <c r="C106" t="s">
+        <v>987</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>883</v>
+        <v>988</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>884</v>
+        <v>989</v>
       </c>
       <c r="J106" t="s">
-        <v>885</v>
+        <v>990</v>
       </c>
       <c r="K106" t="s">
-        <v>886</v>
+        <v>991</v>
       </c>
       <c r="L106" t="s">
-        <v>887</v>
+        <v>992</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>888</v>
+        <v>993</v>
       </c>
       <c r="O106" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P106" t="n">
         <v>2</v>
@@ -10209,56 +10962,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>889</v>
+        <v>994</v>
       </c>
       <c r="X106" t="s">
-        <v>890</v>
+        <v>995</v>
       </c>
       <c r="Y106" t="s">
-        <v>891</v>
+        <v>996</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>31357</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>136034</v>
+      </c>
+      <c r="C107" t="s">
+        <v>997</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>892</v>
+        <v>998</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>893</v>
+        <v>999</v>
       </c>
       <c r="J107" t="s">
-        <v>894</v>
+        <v>1000</v>
       </c>
       <c r="K107" t="s">
-        <v>895</v>
+        <v>1001</v>
       </c>
       <c r="L107" t="s">
-        <v>896</v>
+        <v>1002</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>897</v>
+        <v>1003</v>
       </c>
       <c r="O107" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10280,56 +11037,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="X107" t="s">
-        <v>881</v>
+        <v>985</v>
       </c>
       <c r="Y107" t="s">
-        <v>898</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>31357</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>49025</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1005</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>899</v>
+        <v>1006</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>900</v>
+        <v>1007</v>
       </c>
       <c r="J108" t="s">
-        <v>901</v>
+        <v>1008</v>
       </c>
       <c r="K108" t="s">
-        <v>902</v>
+        <v>1009</v>
       </c>
       <c r="L108" t="s">
-        <v>903</v>
+        <v>1010</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>904</v>
+        <v>1011</v>
       </c>
       <c r="O108" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P108" t="n">
         <v>2</v>
@@ -10351,56 +11112,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>889</v>
+        <v>994</v>
       </c>
       <c r="X108" t="s">
-        <v>890</v>
+        <v>995</v>
       </c>
       <c r="Y108" t="s">
-        <v>905</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>31357</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>21810</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1013</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>906</v>
+        <v>1014</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>907</v>
+        <v>1015</v>
       </c>
       <c r="J109" t="s">
-        <v>908</v>
+        <v>1016</v>
       </c>
       <c r="K109" t="s">
-        <v>909</v>
+        <v>1017</v>
       </c>
       <c r="L109" t="s">
-        <v>910</v>
+        <v>1018</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>911</v>
+        <v>1019</v>
       </c>
       <c r="O109" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10422,56 +11187,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="X109" t="s">
-        <v>881</v>
+        <v>985</v>
       </c>
       <c r="Y109" t="s">
-        <v>912</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>31357</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>136035</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1021</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>913</v>
+        <v>1022</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>914</v>
+        <v>1023</v>
       </c>
       <c r="J110" t="s">
-        <v>915</v>
+        <v>1024</v>
       </c>
       <c r="K110" t="s">
-        <v>916</v>
+        <v>1025</v>
       </c>
       <c r="L110" t="s">
-        <v>917</v>
+        <v>1026</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>918</v>
+        <v>1027</v>
       </c>
       <c r="O110" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10493,56 +11262,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>919</v>
+        <v>1028</v>
       </c>
       <c r="X110" t="s">
-        <v>920</v>
+        <v>1029</v>
       </c>
       <c r="Y110" t="s">
-        <v>921</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>31357</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>136036</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1031</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>922</v>
+        <v>1032</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>923</v>
+        <v>1033</v>
       </c>
       <c r="J111" t="s">
-        <v>924</v>
+        <v>1034</v>
       </c>
       <c r="K111" t="s">
-        <v>925</v>
+        <v>1035</v>
       </c>
       <c r="L111" t="s">
-        <v>926</v>
+        <v>1036</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>927</v>
+        <v>1037</v>
       </c>
       <c r="O111" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -10566,50 +11339,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>926</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>31357</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>136037</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1038</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>928</v>
+        <v>1039</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>929</v>
+        <v>1040</v>
       </c>
       <c r="J112" t="s">
-        <v>930</v>
+        <v>1041</v>
       </c>
       <c r="K112" t="s">
-        <v>931</v>
+        <v>1042</v>
       </c>
       <c r="L112" t="s">
-        <v>932</v>
+        <v>1043</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>897</v>
+        <v>1003</v>
       </c>
       <c r="O112" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -10633,7 +11410,7 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>932</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
